--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -683,19 +635,19 @@
         <v>0.9996186027502157</v>
       </c>
       <c r="F3">
+        <v>1.000648297669052</v>
+      </c>
+      <c r="G3">
+        <v>0.9997982149711302</v>
+      </c>
+      <c r="H3">
         <v>1.000234669525855</v>
       </c>
-      <c r="G3">
-        <v>0.9988712091113666</v>
-      </c>
-      <c r="H3">
+      <c r="I3">
+        <v>0.9988712091113668</v>
+      </c>
+      <c r="J3">
         <v>1.000495997925478</v>
-      </c>
-      <c r="I3">
-        <v>0.9997982149711302</v>
-      </c>
-      <c r="J3">
-        <v>1.000648297669052</v>
       </c>
       <c r="K3">
         <v>1.000234669525855</v>
@@ -728,7 +680,7 @@
         <v>0.9999444986588495</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000468916833756</v>
+        <v>1.000468916833757</v>
       </c>
       <c r="D4">
         <v>1.001242213299469</v>
@@ -745,22 +697,22 @@
         <v>0.999258616438067</v>
       </c>
       <c r="F4">
-        <v>1.000468916833756</v>
+        <v>1.001242213299469</v>
       </c>
       <c r="G4">
+        <v>0.9996114753820033</v>
+      </c>
+      <c r="H4">
+        <v>1.000468916833757</v>
+      </c>
+      <c r="I4">
         <v>0.9978038094803073</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>1.000956953818414</v>
       </c>
-      <c r="I4">
-        <v>0.9996114753820036</v>
-      </c>
-      <c r="J4">
-        <v>1.001242213299469</v>
-      </c>
       <c r="K4">
-        <v>1.000468916833756</v>
+        <v>1.000468916833757</v>
       </c>
       <c r="L4">
         <v>0.999258616438067</v>
@@ -772,10 +724,10 @@
         <v>1.000250414868768</v>
       </c>
       <c r="O4">
-        <v>1.000485927851983</v>
+        <v>1.000485927851984</v>
       </c>
       <c r="P4">
-        <v>1.000323248857097</v>
+        <v>1.000323248857098</v>
       </c>
       <c r="Q4">
         <v>1.000323248857098</v>
@@ -790,7 +742,7 @@
         <v>0.9998903308753363</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -807,19 +759,19 @@
         <v>0.9986170181907268</v>
       </c>
       <c r="F5">
+        <v>1.002453640600924</v>
+      </c>
+      <c r="G5">
+        <v>0.9992474267875902</v>
+      </c>
+      <c r="H5">
         <v>1.000779295450322</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.9959215857277481</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>1.001837942040647</v>
-      </c>
-      <c r="I5">
-        <v>0.9992474267875904</v>
-      </c>
-      <c r="J5">
-        <v>1.002453640600924</v>
       </c>
       <c r="K5">
         <v>1.000779295450322</v>
@@ -852,7 +804,7 @@
         <v>0.9998094847996599</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -866,28 +818,28 @@
         <v>1.00363205135597</v>
       </c>
       <c r="E6">
-        <v>0.9979898719174176</v>
+        <v>0.9979898719174179</v>
       </c>
       <c r="F6">
+        <v>1.00363205135597</v>
+      </c>
+      <c r="G6">
+        <v>0.998892561747999</v>
+      </c>
+      <c r="H6">
         <v>1.001086106178657</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.9940793566808686</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>1.002697696255538</v>
-      </c>
-      <c r="I6">
-        <v>0.998892561747999</v>
-      </c>
-      <c r="J6">
-        <v>1.00363205135597</v>
       </c>
       <c r="K6">
         <v>1.001086106178657</v>
       </c>
       <c r="L6">
-        <v>0.9979898719174176</v>
+        <v>0.9979898719174179</v>
       </c>
       <c r="M6">
         <v>1.000810961636694</v>
@@ -914,7 +866,7 @@
         <v>0.9997296073560751</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -931,19 +883,19 @@
         <v>1.000000538837281</v>
       </c>
       <c r="F7">
+        <v>1.000052447267427</v>
+      </c>
+      <c r="G7">
+        <v>0.9999895122015096</v>
+      </c>
+      <c r="H7">
         <v>0.9999627143675541</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>1.000009783799934</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>1.000019454717874</v>
-      </c>
-      <c r="I7">
-        <v>0.9999895122015097</v>
-      </c>
-      <c r="J7">
-        <v>1.000052447267427</v>
       </c>
       <c r="K7">
         <v>0.9999627143675541</v>
@@ -958,7 +910,7 @@
         <v>1.000026493052354</v>
       </c>
       <c r="O7">
-        <v>1.000024146940861</v>
+        <v>1.00002414694086</v>
       </c>
       <c r="P7">
         <v>1.000005233490754</v>
@@ -967,16 +919,16 @@
         <v>1.000005233490754</v>
       </c>
       <c r="R7">
-        <v>0.9999946037099541</v>
+        <v>0.999994603709954</v>
       </c>
       <c r="S7">
-        <v>0.9999946037099541</v>
+        <v>0.999994603709954</v>
       </c>
       <c r="T7">
         <v>1.000005741865263</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,7 +936,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999553425926557</v>
+        <v>0.9999553425926555</v>
       </c>
       <c r="D8">
         <v>1.000015348119468</v>
@@ -993,22 +945,22 @@
         <v>1.000019603999315</v>
       </c>
       <c r="F8">
-        <v>0.9999553425926557</v>
+        <v>1.000015348119468</v>
       </c>
       <c r="G8">
+        <v>1.000000869648816</v>
+      </c>
+      <c r="H8">
+        <v>0.9999553425926555</v>
+      </c>
+      <c r="I8">
         <v>1.000068448738137</v>
       </c>
-      <c r="H8">
-        <v>0.999991371213359</v>
-      </c>
-      <c r="I8">
-        <v>1.000000869648816</v>
-      </c>
       <c r="J8">
-        <v>1.000015348119468</v>
+        <v>0.9999913712133588</v>
       </c>
       <c r="K8">
-        <v>0.9999553425926557</v>
+        <v>0.9999553425926555</v>
       </c>
       <c r="L8">
         <v>1.000019603999315</v>
@@ -1038,7 +990,7 @@
         <v>1.000008497385292</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1055,19 +1007,19 @@
         <v>1.00001946011932</v>
       </c>
       <c r="F9">
+        <v>0.9999543569232847</v>
+      </c>
+      <c r="G9">
+        <v>1.000013591726827</v>
+      </c>
+      <c r="H9">
         <v>0.9999993294141523</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>1.000062610889037</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>0.9999663856037819</v>
-      </c>
-      <c r="I9">
-        <v>1.000013591726827</v>
-      </c>
-      <c r="J9">
-        <v>0.9999543569232847</v>
       </c>
       <c r="K9">
         <v>0.9999993294141523</v>
@@ -1100,7 +1052,7 @@
         <v>1.000002622446067</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1117,19 +1069,19 @@
         <v>1.000053152231245</v>
       </c>
       <c r="F10">
+        <v>0.9999803548825058</v>
+      </c>
+      <c r="G10">
+        <v>1.000015107538271</v>
+      </c>
+      <c r="H10">
         <v>0.9999226536343783</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>1.000179686373764</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>0.9999516688429281</v>
-      </c>
-      <c r="I10">
-        <v>1.000015107538271</v>
-      </c>
-      <c r="J10">
-        <v>0.9999803548825058</v>
       </c>
       <c r="K10">
         <v>0.9999226536343783</v>
@@ -1162,7 +1114,7 @@
         <v>1.000017103917182</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1179,19 +1131,19 @@
         <v>1.000073336406403</v>
       </c>
       <c r="F11">
+        <v>0.9997355635290421</v>
+      </c>
+      <c r="G11">
+        <v>1.000070329335867</v>
+      </c>
+      <c r="H11">
         <v>1.000063012276881</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>1.00022585921459</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>0.9998363137402609</v>
-      </c>
-      <c r="I11">
-        <v>1.000070329335867</v>
-      </c>
-      <c r="J11">
-        <v>0.9997355635290421</v>
       </c>
       <c r="K11">
         <v>1.000063012276881</v>
@@ -1224,7 +1176,7 @@
         <v>1.000000735750507</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1241,19 +1193,19 @@
         <v>0.9911358819209299</v>
       </c>
       <c r="F12">
+        <v>1.009925210078327</v>
+      </c>
+      <c r="G12">
+        <v>0.9963042578242463</v>
+      </c>
+      <c r="H12">
         <v>1.008863424732987</v>
       </c>
-      <c r="G12">
-        <v>0.9725733016785881</v>
-      </c>
-      <c r="H12">
+      <c r="I12">
+        <v>0.9725733016785879</v>
+      </c>
+      <c r="J12">
         <v>1.009792376101739</v>
-      </c>
-      <c r="I12">
-        <v>0.9963042578242463</v>
-      </c>
-      <c r="J12">
-        <v>1.009925210078327</v>
       </c>
       <c r="K12">
         <v>1.008863424732987</v>
@@ -1286,7 +1238,7 @@
         <v>0.9980990753894696</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1303,19 +1255,19 @@
         <v>1.000484237578679</v>
       </c>
       <c r="F13">
+        <v>1.008751374021603</v>
+      </c>
+      <c r="G13">
+        <v>0.9983545414099195</v>
+      </c>
+      <c r="H13">
         <v>0.9931793604043136</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>1.003188328247692</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>1.00283965906272</v>
-      </c>
-      <c r="I13">
-        <v>0.9983545414099195</v>
-      </c>
-      <c r="J13">
-        <v>1.008751374021603</v>
       </c>
       <c r="K13">
         <v>0.9931793604043136</v>
@@ -1348,7 +1300,7 @@
         <v>1.001132916787488</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1365,19 +1317,19 @@
         <v>0.991888797444474</v>
       </c>
       <c r="F14">
+        <v>1.054016405292263</v>
+      </c>
+      <c r="G14">
+        <v>0.9875412591114598</v>
+      </c>
+      <c r="H14">
         <v>0.9769767332372369</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>0.9817478304955882</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>1.025957156279264</v>
-      </c>
-      <c r="I14">
-        <v>0.9875412591114598</v>
-      </c>
-      <c r="J14">
-        <v>1.054016405292263</v>
       </c>
       <c r="K14">
         <v>0.9769767332372369</v>
@@ -1410,7 +1362,7 @@
         <v>1.003021363643381</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1427,19 +1379,19 @@
         <v>0.9955250115729624</v>
       </c>
       <c r="F15">
+        <v>1.009410418928234</v>
+      </c>
+      <c r="G15">
+        <v>0.9971907808806376</v>
+      </c>
+      <c r="H15">
         <v>1.001238606029603</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>0.9863238961760903</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>1.006864404052626</v>
-      </c>
-      <c r="I15">
-        <v>0.9971907808806376</v>
-      </c>
-      <c r="J15">
-        <v>1.009410418928234</v>
       </c>
       <c r="K15">
         <v>1.001238606029603</v>
@@ -1472,7 +1424,7 @@
         <v>0.999425519606692</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9998483766708359</v>
+        <v>1.003382118774417</v>
       </c>
       <c r="D16">
-        <v>1.000091710999417</v>
+        <v>1.013355496663722</v>
       </c>
       <c r="E16">
-        <v>1.000047485218225</v>
+        <v>0.9929469260791584</v>
       </c>
       <c r="F16">
-        <v>0.9998483766708359</v>
+        <v>1.013355496663722</v>
       </c>
       <c r="G16">
-        <v>1.000158982200722</v>
+        <v>0.9959892574160794</v>
       </c>
       <c r="H16">
-        <v>1.000007482038146</v>
+        <v>1.003382118774417</v>
       </c>
       <c r="I16">
-        <v>0.9999894370569755</v>
+        <v>0.9793053856629585</v>
       </c>
       <c r="J16">
-        <v>1.000091710999417</v>
+        <v>1.009703848358699</v>
       </c>
       <c r="K16">
-        <v>0.9998483766708359</v>
+        <v>1.003382118774417</v>
       </c>
       <c r="L16">
-        <v>1.000047485218225</v>
+        <v>0.9929469260791584</v>
       </c>
       <c r="M16">
-        <v>1.000069598108821</v>
+        <v>1.00315121137144</v>
       </c>
       <c r="N16">
-        <v>1.000069598108821</v>
+        <v>1.00315121137144</v>
       </c>
       <c r="O16">
-        <v>1.00004889275193</v>
+        <v>1.005335423700527</v>
       </c>
       <c r="P16">
-        <v>0.9999958576294928</v>
+        <v>1.003228180505766</v>
       </c>
       <c r="Q16">
-        <v>0.9999958576294928</v>
+        <v>1.003228180505766</v>
       </c>
       <c r="R16">
-        <v>0.9999589873898286</v>
+        <v>1.003266665072928</v>
       </c>
       <c r="S16">
-        <v>0.9999589873898286</v>
+        <v>1.003266665072928</v>
       </c>
       <c r="T16">
-        <v>1.000023912364054</v>
+        <v>0.9991138388258389</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000135369521953</v>
+        <v>1.000378886380182</v>
       </c>
       <c r="D17">
-        <v>0.9999921960152731</v>
+        <v>1.012339320203491</v>
       </c>
       <c r="E17">
-        <v>0.999929304999181</v>
+        <v>0.9950065594208785</v>
       </c>
       <c r="F17">
-        <v>1.000135369521953</v>
+        <v>1.012339320203491</v>
       </c>
       <c r="G17">
-        <v>0.9997798254349175</v>
+        <v>0.9965728364981933</v>
       </c>
       <c r="H17">
-        <v>1.000039147576424</v>
+        <v>1.000378886380182</v>
       </c>
       <c r="I17">
-        <v>0.9999893828456905</v>
+        <v>0.9857414830737043</v>
       </c>
       <c r="J17">
-        <v>0.9999921960152731</v>
+        <v>1.007984800575847</v>
       </c>
       <c r="K17">
-        <v>1.000135369521953</v>
+        <v>1.000378886380182</v>
       </c>
       <c r="L17">
-        <v>0.999929304999181</v>
+        <v>0.9950065594208785</v>
       </c>
       <c r="M17">
-        <v>0.999960750507227</v>
+        <v>1.003672939812185</v>
       </c>
       <c r="N17">
-        <v>0.999960750507227</v>
+        <v>1.003672939812185</v>
       </c>
       <c r="O17">
-        <v>0.9999868828636259</v>
+        <v>1.005110226733406</v>
       </c>
       <c r="P17">
-        <v>1.000018956845469</v>
+        <v>1.002574922001517</v>
       </c>
       <c r="Q17">
-        <v>1.000018956845469</v>
+        <v>1.002574922001517</v>
       </c>
       <c r="R17">
-        <v>1.00004806001459</v>
+        <v>1.002025913096183</v>
       </c>
       <c r="S17">
-        <v>1.00004806001459</v>
+        <v>1.002025913096183</v>
       </c>
       <c r="T17">
-        <v>0.9999775377322399</v>
+        <v>0.9996706476920494</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9996983731264427</v>
+        <v>0.9945297671719183</v>
       </c>
       <c r="D18">
-        <v>1.000415810252639</v>
+        <v>1.010073020400663</v>
       </c>
       <c r="E18">
-        <v>1.000003100088122</v>
+        <v>0.9991298156559812</v>
       </c>
       <c r="F18">
-        <v>0.9996983731264427</v>
+        <v>1.010073020400663</v>
       </c>
       <c r="G18">
-        <v>1.000052090334274</v>
+        <v>0.9977886947571261</v>
       </c>
       <c r="H18">
-        <v>1.000166132927129</v>
+        <v>0.9945297671719183</v>
       </c>
       <c r="I18">
-        <v>0.9999142587823105</v>
+        <v>0.9985972849778778</v>
       </c>
       <c r="J18">
-        <v>1.000415810252639</v>
+        <v>1.004452305376183</v>
       </c>
       <c r="K18">
-        <v>0.9996983731264427</v>
+        <v>0.9945297671719183</v>
       </c>
       <c r="L18">
-        <v>1.000003100088122</v>
+        <v>0.9991298156559812</v>
       </c>
       <c r="M18">
-        <v>1.000209455170381</v>
+        <v>1.004601418028322</v>
       </c>
       <c r="N18">
-        <v>1.000209455170381</v>
+        <v>1.004601418028322</v>
       </c>
       <c r="O18">
-        <v>1.00019501442263</v>
+        <v>1.004551713810942</v>
       </c>
       <c r="P18">
-        <v>1.000039094489068</v>
+        <v>1.001244201076188</v>
       </c>
       <c r="Q18">
-        <v>1.000039094489068</v>
+        <v>1.001244201076188</v>
       </c>
       <c r="R18">
-        <v>0.9999539141484116</v>
+        <v>0.9995655926001202</v>
       </c>
       <c r="S18">
-        <v>0.9999539141484116</v>
+        <v>0.9995655926001202</v>
       </c>
       <c r="T18">
-        <v>1.000041627585153</v>
+        <v>1.000761814723292</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9927747027630728</v>
+      </c>
+      <c r="D19">
+        <v>1.011452549747756</v>
+      </c>
+      <c r="E19">
+        <v>0.9995716989447081</v>
+      </c>
+      <c r="F19">
+        <v>1.011452549747756</v>
+      </c>
+      <c r="G19">
+        <v>0.9975900697150011</v>
+      </c>
+      <c r="H19">
+        <v>0.9927747027630728</v>
+      </c>
+      <c r="I19">
+        <v>1.000211266174402</v>
+      </c>
+      <c r="J19">
+        <v>1.004693007968605</v>
+      </c>
+      <c r="K19">
+        <v>0.9927747027630728</v>
+      </c>
+      <c r="L19">
+        <v>0.9995716989447081</v>
+      </c>
+      <c r="M19">
+        <v>1.005512124346232</v>
+      </c>
+      <c r="N19">
+        <v>1.005512124346232</v>
+      </c>
+      <c r="O19">
+        <v>1.00523908555369</v>
+      </c>
+      <c r="P19">
+        <v>1.001266317151846</v>
+      </c>
+      <c r="Q19">
+        <v>1.001266317151846</v>
+      </c>
+      <c r="R19">
+        <v>0.9991434135546525</v>
+      </c>
+      <c r="S19">
+        <v>0.9991434135546525</v>
+      </c>
+      <c r="T19">
+        <v>1.001048882552258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9998483766708363</v>
+      </c>
+      <c r="D20">
+        <v>1.000091710999417</v>
+      </c>
+      <c r="E20">
+        <v>1.000047485218225</v>
+      </c>
+      <c r="F20">
+        <v>1.000091710999417</v>
+      </c>
+      <c r="G20">
+        <v>0.9999894370569756</v>
+      </c>
+      <c r="H20">
+        <v>0.9998483766708363</v>
+      </c>
+      <c r="I20">
+        <v>1.000158982200722</v>
+      </c>
+      <c r="J20">
+        <v>1.000007482038146</v>
+      </c>
+      <c r="K20">
+        <v>0.9998483766708363</v>
+      </c>
+      <c r="L20">
+        <v>1.000047485218225</v>
+      </c>
+      <c r="M20">
+        <v>1.000069598108821</v>
+      </c>
+      <c r="N20">
+        <v>1.000069598108821</v>
+      </c>
+      <c r="O20">
+        <v>1.00004889275193</v>
+      </c>
+      <c r="P20">
+        <v>0.9999958576294929</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999958576294929</v>
+      </c>
+      <c r="R20">
+        <v>0.9999589873898288</v>
+      </c>
+      <c r="S20">
+        <v>0.9999589873898288</v>
+      </c>
+      <c r="T20">
+        <v>1.000023912364054</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000135369521953</v>
+      </c>
+      <c r="D21">
+        <v>0.9999921960152732</v>
+      </c>
+      <c r="E21">
+        <v>0.999929304999181</v>
+      </c>
+      <c r="F21">
+        <v>0.9999921960152732</v>
+      </c>
+      <c r="G21">
+        <v>0.9999893828456905</v>
+      </c>
+      <c r="H21">
+        <v>1.000135369521953</v>
+      </c>
+      <c r="I21">
+        <v>0.9997798254349175</v>
+      </c>
+      <c r="J21">
+        <v>1.000039147576424</v>
+      </c>
+      <c r="K21">
+        <v>1.000135369521953</v>
+      </c>
+      <c r="L21">
+        <v>0.999929304999181</v>
+      </c>
+      <c r="M21">
+        <v>0.9999607505072271</v>
+      </c>
+      <c r="N21">
+        <v>0.9999607505072271</v>
+      </c>
+      <c r="O21">
+        <v>0.9999868828636259</v>
+      </c>
+      <c r="P21">
+        <v>1.000018956845469</v>
+      </c>
+      <c r="Q21">
+        <v>1.000018956845469</v>
+      </c>
+      <c r="R21">
+        <v>1.00004806001459</v>
+      </c>
+      <c r="S21">
+        <v>1.00004806001459</v>
+      </c>
+      <c r="T21">
+        <v>0.9999775377322399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9996983731264427</v>
+      </c>
+      <c r="D22">
+        <v>1.000415810252639</v>
+      </c>
+      <c r="E22">
+        <v>1.000003100088122</v>
+      </c>
+      <c r="F22">
+        <v>1.000415810252639</v>
+      </c>
+      <c r="G22">
+        <v>0.9999142587823107</v>
+      </c>
+      <c r="H22">
+        <v>0.9996983731264427</v>
+      </c>
+      <c r="I22">
+        <v>1.000052090334274</v>
+      </c>
+      <c r="J22">
+        <v>1.000166132927129</v>
+      </c>
+      <c r="K22">
+        <v>0.9996983731264427</v>
+      </c>
+      <c r="L22">
+        <v>1.000003100088122</v>
+      </c>
+      <c r="M22">
+        <v>1.000209455170381</v>
+      </c>
+      <c r="N22">
+        <v>1.000209455170381</v>
+      </c>
+      <c r="O22">
+        <v>1.00019501442263</v>
+      </c>
+      <c r="P22">
+        <v>1.000039094489068</v>
+      </c>
+      <c r="Q22">
+        <v>1.000039094489068</v>
+      </c>
+      <c r="R22">
+        <v>0.9999539141484116</v>
+      </c>
+      <c r="S22">
+        <v>0.9999539141484116</v>
+      </c>
+      <c r="T22">
+        <v>1.000041627585153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.9988834422183701</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>1.001198805446123</v>
       </c>
-      <c r="E19">
+      <c r="E23">
         <v>1.000141464736012</v>
       </c>
-      <c r="F19">
+      <c r="F23">
+        <v>1.001198805446123</v>
+      </c>
+      <c r="G23">
+        <v>0.9997746962487162</v>
+      </c>
+      <c r="H23">
         <v>0.9988834422183701</v>
       </c>
-      <c r="G19">
+      <c r="I23">
         <v>1.000551829250686</v>
       </c>
-      <c r="H19">
+      <c r="J23">
         <v>1.000404604375251</v>
       </c>
-      <c r="I19">
-        <v>0.9997746962487162</v>
-      </c>
-      <c r="J19">
-        <v>1.001198805446123</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>0.9988834422183701</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.000141464736012</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.000670135091067</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.000670135091067</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.000581624852462</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.000074570800168</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000074570800168</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9997767886547188</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9997767886547188</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000159140379193</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW30.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000234669525855</v>
+        <v>0.9940785671253572</v>
       </c>
       <c r="D3">
-        <v>1.000648297669052</v>
+        <v>1.010250575799712</v>
       </c>
       <c r="E3">
-        <v>0.9996186027502157</v>
+        <v>0.9993137955691641</v>
       </c>
       <c r="F3">
-        <v>1.000648297669052</v>
+        <v>1.010250575799712</v>
       </c>
       <c r="G3">
-        <v>0.9997982149711302</v>
+        <v>0.9977874906916424</v>
       </c>
       <c r="H3">
-        <v>1.000234669525855</v>
+        <v>0.9940785671253572</v>
       </c>
       <c r="I3">
-        <v>0.9988712091113668</v>
+        <v>0.9992210391570627</v>
       </c>
       <c r="J3">
-        <v>1.000495997925478</v>
+        <v>1.004396158321326</v>
       </c>
       <c r="K3">
-        <v>1.000234669525855</v>
+        <v>0.9940785671253572</v>
       </c>
       <c r="L3">
-        <v>0.9996186027502157</v>
+        <v>0.9993137955691641</v>
       </c>
       <c r="M3">
-        <v>1.000133450209634</v>
+        <v>1.004782185684438</v>
       </c>
       <c r="N3">
-        <v>1.000133450209634</v>
+        <v>1.004782185684438</v>
       </c>
       <c r="O3">
-        <v>1.000254299448248</v>
+        <v>1.004653509896734</v>
       </c>
       <c r="P3">
-        <v>1.000167189981707</v>
+        <v>1.001214312831411</v>
       </c>
       <c r="Q3">
-        <v>1.000167189981707</v>
+        <v>1.001214312831411</v>
       </c>
       <c r="R3">
-        <v>1.000184059867744</v>
+        <v>0.9994303764048976</v>
       </c>
       <c r="S3">
-        <v>1.000184059867744</v>
+        <v>0.9994303764048976</v>
       </c>
       <c r="T3">
-        <v>0.9999444986588495</v>
+        <v>1.000841271110711</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000468916833757</v>
+        <v>0.9942047495098771</v>
       </c>
       <c r="D4">
-        <v>1.001242213299469</v>
+        <v>1.010293766166606</v>
       </c>
       <c r="E4">
-        <v>0.999258616438067</v>
+        <v>0.9992249063315348</v>
       </c>
       <c r="F4">
-        <v>1.001242213299469</v>
+        <v>1.010293766166606</v>
       </c>
       <c r="G4">
-        <v>0.9996114753820033</v>
+        <v>0.9977613045415541</v>
       </c>
       <c r="H4">
-        <v>1.000468916833757</v>
+        <v>0.9942047495098771</v>
       </c>
       <c r="I4">
-        <v>0.9978038094803073</v>
+        <v>0.9989327920350345</v>
       </c>
       <c r="J4">
-        <v>1.000956953818414</v>
+        <v>1.004475420685792</v>
       </c>
       <c r="K4">
-        <v>1.000468916833757</v>
+        <v>0.9942047495098771</v>
       </c>
       <c r="L4">
-        <v>0.999258616438067</v>
+        <v>0.9992249063315348</v>
       </c>
       <c r="M4">
-        <v>1.000250414868768</v>
+        <v>1.004759336249071</v>
       </c>
       <c r="N4">
-        <v>1.000250414868768</v>
+        <v>1.004759336249071</v>
       </c>
       <c r="O4">
-        <v>1.000485927851984</v>
+        <v>1.004664697727978</v>
       </c>
       <c r="P4">
-        <v>1.000323248857098</v>
+        <v>1.001241140669339</v>
       </c>
       <c r="Q4">
-        <v>1.000323248857098</v>
+        <v>1.00124114066934</v>
       </c>
       <c r="R4">
-        <v>1.000359665851262</v>
+        <v>0.999482042879474</v>
       </c>
       <c r="S4">
-        <v>1.000359665851262</v>
+        <v>0.999482042879474</v>
       </c>
       <c r="T4">
-        <v>0.9998903308753363</v>
+        <v>1.0008154898784</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000779295450322</v>
+        <v>0.9938472054447439</v>
       </c>
       <c r="D5">
-        <v>1.002453640600924</v>
+        <v>1.010150922749327</v>
       </c>
       <c r="E5">
-        <v>0.9986170181907268</v>
+        <v>0.9994852412129392</v>
       </c>
       <c r="F5">
-        <v>1.002453640600924</v>
+        <v>1.010150922749327</v>
       </c>
       <c r="G5">
-        <v>0.9992474267875902</v>
+        <v>0.9978415001617255</v>
       </c>
       <c r="H5">
-        <v>1.000779295450322</v>
+        <v>0.9938472054447439</v>
       </c>
       <c r="I5">
-        <v>0.9959215857277481</v>
+        <v>0.9997763398921826</v>
       </c>
       <c r="J5">
-        <v>1.001837942040647</v>
+        <v>1.004236157169811</v>
       </c>
       <c r="K5">
-        <v>1.000779295450322</v>
+        <v>0.9938472054447439</v>
       </c>
       <c r="L5">
-        <v>0.9986170181907268</v>
+        <v>0.9994852412129392</v>
       </c>
       <c r="M5">
-        <v>1.000535329395825</v>
+        <v>1.004818081981133</v>
       </c>
       <c r="N5">
-        <v>1.000535329395825</v>
+        <v>1.004818081981133</v>
       </c>
       <c r="O5">
-        <v>1.000969533610766</v>
+        <v>1.004624107044026</v>
       </c>
       <c r="P5">
-        <v>1.000616651413991</v>
+        <v>1.00116112313567</v>
       </c>
       <c r="Q5">
-        <v>1.000616651413991</v>
+        <v>1.00116112313567</v>
       </c>
       <c r="R5">
-        <v>1.000657312423074</v>
+        <v>0.9993326437129385</v>
       </c>
       <c r="S5">
-        <v>1.000657312423074</v>
+        <v>0.9993326437129385</v>
       </c>
       <c r="T5">
-        <v>0.9998094847996599</v>
+        <v>1.000889561105122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001086106178657</v>
+        <v>0.9936410150000003</v>
       </c>
       <c r="D6">
-        <v>1.00363205135597</v>
+        <v>1.010036908863637</v>
       </c>
       <c r="E6">
-        <v>0.9979898719174179</v>
+        <v>0.9996484582954546</v>
       </c>
       <c r="F6">
-        <v>1.00363205135597</v>
+        <v>1.010036908863637</v>
       </c>
       <c r="G6">
-        <v>0.998892561747999</v>
+        <v>0.9978970171022725</v>
       </c>
       <c r="H6">
-        <v>1.001086106178657</v>
+        <v>0.9936410150000003</v>
       </c>
       <c r="I6">
-        <v>0.9940793566808686</v>
+        <v>1.000304205397727</v>
       </c>
       <c r="J6">
-        <v>1.002697696255538</v>
+        <v>1.004075500397727</v>
       </c>
       <c r="K6">
-        <v>1.001086106178657</v>
+        <v>0.9936410150000003</v>
       </c>
       <c r="L6">
-        <v>0.9979898719174179</v>
+        <v>0.9996484582954546</v>
       </c>
       <c r="M6">
-        <v>1.000810961636694</v>
+        <v>1.004842683579545</v>
       </c>
       <c r="N6">
-        <v>1.000810961636694</v>
+        <v>1.004842683579545</v>
       </c>
       <c r="O6">
-        <v>1.001439873176308</v>
+        <v>1.004586955852273</v>
       </c>
       <c r="P6">
-        <v>1.000902676484015</v>
+        <v>1.001108794053031</v>
       </c>
       <c r="Q6">
-        <v>1.000902676484015</v>
+        <v>1.001108794053031</v>
       </c>
       <c r="R6">
-        <v>1.000948533907675</v>
+        <v>0.999241849289773</v>
       </c>
       <c r="S6">
-        <v>1.000948533907675</v>
+        <v>0.999241849289773</v>
       </c>
       <c r="T6">
-        <v>0.9997296073560751</v>
+        <v>1.000933850842803</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999627143675541</v>
+        <v>1.047574610241518</v>
       </c>
       <c r="D7">
-        <v>1.000052447267427</v>
+        <v>0.844110246622566</v>
       </c>
       <c r="E7">
-        <v>1.000000538837281</v>
+        <v>1.034276151355305</v>
       </c>
       <c r="F7">
-        <v>1.000052447267427</v>
+        <v>0.844110246622566</v>
       </c>
       <c r="G7">
-        <v>0.9999895122015096</v>
+        <v>1.038153255822722</v>
       </c>
       <c r="H7">
-        <v>0.9999627143675541</v>
+        <v>1.047574610241518</v>
       </c>
       <c r="I7">
-        <v>1.000009783799934</v>
+        <v>1.089295373897486</v>
       </c>
       <c r="J7">
-        <v>1.000019454717874</v>
+        <v>0.9171001752077409</v>
       </c>
       <c r="K7">
-        <v>0.9999627143675541</v>
+        <v>1.047574610241518</v>
       </c>
       <c r="L7">
-        <v>1.000000538837281</v>
+        <v>1.034276151355305</v>
       </c>
       <c r="M7">
-        <v>1.000026493052354</v>
+        <v>0.9391931989889355</v>
       </c>
       <c r="N7">
-        <v>1.000026493052354</v>
+        <v>0.9391931989889355</v>
       </c>
       <c r="O7">
-        <v>1.00002414694086</v>
+        <v>0.9318288577285373</v>
       </c>
       <c r="P7">
-        <v>1.000005233490754</v>
+        <v>0.9753203360731298</v>
       </c>
       <c r="Q7">
-        <v>1.000005233490754</v>
+        <v>0.9753203360731298</v>
       </c>
       <c r="R7">
-        <v>0.999994603709954</v>
+        <v>0.9933839046152271</v>
       </c>
       <c r="S7">
-        <v>0.999994603709954</v>
+        <v>0.9933839046152271</v>
       </c>
       <c r="T7">
-        <v>1.000005741865263</v>
+        <v>0.9950849688578899</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999553425926555</v>
+        <v>1.047361717666264</v>
       </c>
       <c r="D8">
-        <v>1.000015348119468</v>
+        <v>0.8447669294522822</v>
       </c>
       <c r="E8">
-        <v>1.000019603999315</v>
+        <v>1.034140572683366</v>
       </c>
       <c r="F8">
-        <v>1.000015348119468</v>
+        <v>0.8447669294522822</v>
       </c>
       <c r="G8">
-        <v>1.000000869648816</v>
+        <v>1.037995136663202</v>
       </c>
       <c r="H8">
-        <v>0.9999553425926555</v>
+        <v>1.047361717666264</v>
       </c>
       <c r="I8">
-        <v>1.000068448738137</v>
+        <v>1.088956396915686</v>
       </c>
       <c r="J8">
-        <v>0.9999913712133588</v>
+        <v>0.9174390696501432</v>
       </c>
       <c r="K8">
-        <v>0.9999553425926555</v>
+        <v>1.047361717666264</v>
       </c>
       <c r="L8">
-        <v>1.000019603999315</v>
+        <v>1.034140572683366</v>
       </c>
       <c r="M8">
-        <v>1.000017476059392</v>
+        <v>0.9394537510678241</v>
       </c>
       <c r="N8">
-        <v>1.000017476059392</v>
+        <v>0.9394537510678241</v>
       </c>
       <c r="O8">
-        <v>1.000008774444048</v>
+        <v>0.9321155239285971</v>
       </c>
       <c r="P8">
-        <v>0.9999967649038132</v>
+        <v>0.975423073267304</v>
       </c>
       <c r="Q8">
-        <v>0.9999967649038132</v>
+        <v>0.975423073267304</v>
       </c>
       <c r="R8">
-        <v>0.9999864093260238</v>
+        <v>0.993407734367044</v>
       </c>
       <c r="S8">
-        <v>0.9999864093260238</v>
+        <v>0.993407734367044</v>
       </c>
       <c r="T8">
-        <v>1.000008497385292</v>
+        <v>0.9951099705051573</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999993294141523</v>
+        <v>1.047023833398153</v>
       </c>
       <c r="D9">
-        <v>0.9999543569232847</v>
+        <v>0.8455062112504748</v>
       </c>
       <c r="E9">
-        <v>1.00001946011932</v>
+        <v>1.0340411351395</v>
       </c>
       <c r="F9">
-        <v>0.9999543569232847</v>
+        <v>0.8455062112504748</v>
       </c>
       <c r="G9">
-        <v>1.000013591726827</v>
+        <v>1.037826181120758</v>
       </c>
       <c r="H9">
-        <v>0.9999993294141523</v>
+        <v>1.047023833398153</v>
       </c>
       <c r="I9">
-        <v>1.000062610889037</v>
+        <v>1.088738435273164</v>
       </c>
       <c r="J9">
-        <v>0.9999663856037819</v>
+        <v>0.9177894911264001</v>
       </c>
       <c r="K9">
-        <v>0.9999993294141523</v>
+        <v>1.047023833398153</v>
       </c>
       <c r="L9">
-        <v>1.00001946011932</v>
+        <v>1.0340411351395</v>
       </c>
       <c r="M9">
-        <v>0.9999869085213025</v>
+        <v>0.9397736731949874</v>
       </c>
       <c r="N9">
-        <v>0.9999869085213025</v>
+        <v>0.9397736731949874</v>
       </c>
       <c r="O9">
-        <v>0.9999800675487956</v>
+        <v>0.9324456125054583</v>
       </c>
       <c r="P9">
-        <v>0.9999910488189191</v>
+        <v>0.9755237265960425</v>
       </c>
       <c r="Q9">
-        <v>0.9999910488189191</v>
+        <v>0.9755237265960425</v>
       </c>
       <c r="R9">
-        <v>0.9999931189677274</v>
+        <v>0.9933987532965701</v>
       </c>
       <c r="S9">
-        <v>0.9999931189677274</v>
+        <v>0.9933987532965701</v>
       </c>
       <c r="T9">
-        <v>1.000002622446067</v>
+        <v>0.9951542145514081</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999226536343783</v>
+        <v>1.04713282077943</v>
       </c>
       <c r="D10">
-        <v>0.9999803548825058</v>
+        <v>0.8459295321427759</v>
       </c>
       <c r="E10">
-        <v>1.000053152231245</v>
+        <v>1.033823563102639</v>
       </c>
       <c r="F10">
-        <v>0.9999803548825058</v>
+        <v>0.8459295321427759</v>
       </c>
       <c r="G10">
-        <v>1.000015107538271</v>
+        <v>1.037703815953669</v>
       </c>
       <c r="H10">
-        <v>0.9999226536343783</v>
+        <v>1.04713282077943</v>
       </c>
       <c r="I10">
-        <v>1.000179686373764</v>
+        <v>1.088135134812273</v>
       </c>
       <c r="J10">
-        <v>0.9999516688429281</v>
+        <v>0.9180760086314967</v>
       </c>
       <c r="K10">
-        <v>0.9999226536343783</v>
+        <v>1.04713282077943</v>
       </c>
       <c r="L10">
-        <v>1.000053152231245</v>
+        <v>1.033823563102639</v>
       </c>
       <c r="M10">
-        <v>1.000016753556875</v>
+        <v>0.9398765476227076</v>
       </c>
       <c r="N10">
-        <v>1.000016753556875</v>
+        <v>0.9398765476227076</v>
       </c>
       <c r="O10">
-        <v>0.9999950586522263</v>
+        <v>0.9326097012923039</v>
       </c>
       <c r="P10">
-        <v>0.999985386916043</v>
+        <v>0.9756286386749483</v>
       </c>
       <c r="Q10">
-        <v>0.9999853869160429</v>
+        <v>0.9756286386749483</v>
       </c>
       <c r="R10">
-        <v>0.9999697035956268</v>
+        <v>0.9935046842010686</v>
       </c>
       <c r="S10">
-        <v>0.9999697035956268</v>
+        <v>0.9935046842010686</v>
       </c>
       <c r="T10">
-        <v>1.000017103917182</v>
+        <v>0.9951334792370473</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000063012276881</v>
+        <v>1.000506394063281</v>
       </c>
       <c r="D11">
-        <v>0.9997355635290421</v>
+        <v>1.00004296892323</v>
       </c>
       <c r="E11">
-        <v>1.000073336406403</v>
+        <v>0.9997037562079225</v>
       </c>
       <c r="F11">
-        <v>0.9997355635290421</v>
+        <v>1.00004296892323</v>
       </c>
       <c r="G11">
-        <v>1.000070329335867</v>
+        <v>0.9999377619861038</v>
       </c>
       <c r="H11">
-        <v>1.000063012276881</v>
+        <v>1.000506394063281</v>
       </c>
       <c r="I11">
-        <v>1.00022585921459</v>
+        <v>0.9990663782400415</v>
       </c>
       <c r="J11">
-        <v>0.9998363137402609</v>
+        <v>1.00020421223388</v>
       </c>
       <c r="K11">
-        <v>1.000063012276881</v>
+        <v>1.000506394063281</v>
       </c>
       <c r="L11">
-        <v>1.000073336406403</v>
+        <v>0.9997037562079225</v>
       </c>
       <c r="M11">
-        <v>0.9999044499677227</v>
+        <v>0.9998733625655761</v>
       </c>
       <c r="N11">
-        <v>0.9999044499677227</v>
+        <v>0.9998733625655761</v>
       </c>
       <c r="O11">
-        <v>0.999881737891902</v>
+        <v>0.9999836457883443</v>
       </c>
       <c r="P11">
-        <v>0.9999573040707753</v>
+        <v>1.000084373064811</v>
       </c>
       <c r="Q11">
-        <v>0.9999573040707753</v>
+        <v>1.000084373064811</v>
       </c>
       <c r="R11">
-        <v>0.9999837311223017</v>
+        <v>1.000189878314429</v>
       </c>
       <c r="S11">
-        <v>0.9999837311223017</v>
+        <v>1.000189878314429</v>
       </c>
       <c r="T11">
-        <v>1.000000735750507</v>
+        <v>0.999910245275743</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.008863424732987</v>
+        <v>1.000350452092138</v>
       </c>
       <c r="D12">
-        <v>1.009925210078327</v>
+        <v>0.9995096870926772</v>
       </c>
       <c r="E12">
-        <v>0.9911358819209299</v>
+        <v>0.9999969411589315</v>
       </c>
       <c r="F12">
-        <v>1.009925210078327</v>
+        <v>0.9995096870926772</v>
       </c>
       <c r="G12">
-        <v>0.9963042578242463</v>
+        <v>1.00010000644181</v>
       </c>
       <c r="H12">
-        <v>1.008863424732987</v>
+        <v>1.000350452092138</v>
       </c>
       <c r="I12">
-        <v>0.9725733016785879</v>
+        <v>0.9999294495166209</v>
       </c>
       <c r="J12">
-        <v>1.009792376101739</v>
+        <v>0.9998093758596857</v>
       </c>
       <c r="K12">
-        <v>1.008863424732987</v>
+        <v>1.000350452092138</v>
       </c>
       <c r="L12">
-        <v>0.9911358819209299</v>
+        <v>0.9999969411589315</v>
       </c>
       <c r="M12">
-        <v>1.000530545999629</v>
+        <v>0.9997533141258044</v>
       </c>
       <c r="N12">
-        <v>1.000530545999629</v>
+        <v>0.9997533141258044</v>
       </c>
       <c r="O12">
-        <v>1.003617822700332</v>
+        <v>0.9997720013704314</v>
       </c>
       <c r="P12">
-        <v>1.003308172244082</v>
+        <v>0.9999523601145821</v>
       </c>
       <c r="Q12">
-        <v>1.003308172244082</v>
+        <v>0.9999523601145821</v>
       </c>
       <c r="R12">
-        <v>1.004696985366308</v>
+        <v>1.000051883108971</v>
       </c>
       <c r="S12">
-        <v>1.004696985366308</v>
+        <v>1.000051883108971</v>
       </c>
       <c r="T12">
-        <v>0.9980990753894696</v>
+        <v>0.9999493186936438</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9931793604043136</v>
+        <v>1.001325703166177</v>
       </c>
       <c r="D13">
-        <v>1.008751374021603</v>
+        <v>0.998014805535715</v>
       </c>
       <c r="E13">
-        <v>1.000484237578679</v>
+        <v>1.000039099414682</v>
       </c>
       <c r="F13">
-        <v>1.008751374021603</v>
+        <v>0.998014805535715</v>
       </c>
       <c r="G13">
-        <v>0.9983545414099195</v>
+        <v>1.000414203954175</v>
       </c>
       <c r="H13">
-        <v>0.9931793604043136</v>
+        <v>1.001325703166177</v>
       </c>
       <c r="I13">
-        <v>1.003188328247692</v>
+        <v>0.9998776348467322</v>
       </c>
       <c r="J13">
-        <v>1.00283965906272</v>
+        <v>0.9991955799044552</v>
       </c>
       <c r="K13">
-        <v>0.9931793604043136</v>
+        <v>1.001325703166177</v>
       </c>
       <c r="L13">
-        <v>1.000484237578679</v>
+        <v>1.000039099414682</v>
       </c>
       <c r="M13">
-        <v>1.004617805800141</v>
+        <v>0.9990269524751985</v>
       </c>
       <c r="N13">
-        <v>1.004617805800141</v>
+        <v>0.9990269524751985</v>
       </c>
       <c r="O13">
-        <v>1.004025090221001</v>
+        <v>0.9990831616182841</v>
       </c>
       <c r="P13">
-        <v>1.000804990668198</v>
+        <v>0.9997932027055247</v>
       </c>
       <c r="Q13">
-        <v>1.000804990668198</v>
+        <v>0.9997932027055247</v>
       </c>
       <c r="R13">
-        <v>0.9988985831022272</v>
+        <v>1.000176327820688</v>
       </c>
       <c r="S13">
-        <v>0.9988985831022272</v>
+        <v>1.000176327820688</v>
       </c>
       <c r="T13">
-        <v>1.001132916787488</v>
+        <v>0.9998111711369896</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9769767332372369</v>
+        <v>1.000578178831329</v>
       </c>
       <c r="D14">
-        <v>1.054016405292263</v>
+        <v>1.001814446079193</v>
       </c>
       <c r="E14">
-        <v>0.991888797444474</v>
+        <v>0.9989762623815017</v>
       </c>
       <c r="F14">
-        <v>1.054016405292263</v>
+        <v>1.001814446079193</v>
       </c>
       <c r="G14">
-        <v>0.9875412591114598</v>
+        <v>0.9994432892641443</v>
       </c>
       <c r="H14">
-        <v>0.9769767332372369</v>
+        <v>1.000578178831329</v>
       </c>
       <c r="I14">
-        <v>0.9817478304955882</v>
+        <v>0.9969807787796152</v>
       </c>
       <c r="J14">
-        <v>1.025957156279264</v>
+        <v>1.001359783571499</v>
       </c>
       <c r="K14">
-        <v>0.9769767332372369</v>
+        <v>1.000578178831329</v>
       </c>
       <c r="L14">
-        <v>0.991888797444474</v>
+        <v>0.9989762623815017</v>
       </c>
       <c r="M14">
-        <v>1.022952601368369</v>
+        <v>1.000395354230347</v>
       </c>
       <c r="N14">
-        <v>1.022952601368369</v>
+        <v>1.000395354230347</v>
       </c>
       <c r="O14">
-        <v>1.023954119672</v>
+        <v>1.000716830677398</v>
       </c>
       <c r="P14">
-        <v>1.007627311991325</v>
+        <v>1.000456295764008</v>
       </c>
       <c r="Q14">
-        <v>1.007627311991325</v>
+        <v>1.000456295764008</v>
       </c>
       <c r="R14">
-        <v>0.9999646673028026</v>
+        <v>1.000486766530838</v>
       </c>
       <c r="S14">
-        <v>0.9999646673028026</v>
+        <v>1.000486766530838</v>
       </c>
       <c r="T14">
-        <v>1.003021363643381</v>
+        <v>0.9998587898178805</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.001238606029603</v>
+        <v>1.000234669525855</v>
       </c>
       <c r="D15">
-        <v>1.009410418928234</v>
+        <v>1.000648297669052</v>
       </c>
       <c r="E15">
-        <v>0.9955250115729624</v>
+        <v>0.9996186027502157</v>
       </c>
       <c r="F15">
-        <v>1.009410418928234</v>
+        <v>1.000648297669052</v>
       </c>
       <c r="G15">
-        <v>0.9971907808806376</v>
+        <v>0.9997982149711302</v>
       </c>
       <c r="H15">
-        <v>1.001238606029603</v>
+        <v>1.000234669525855</v>
       </c>
       <c r="I15">
-        <v>0.9863238961760903</v>
+        <v>0.9988712091113668</v>
       </c>
       <c r="J15">
-        <v>1.006864404052626</v>
+        <v>1.000495997925478</v>
       </c>
       <c r="K15">
-        <v>1.001238606029603</v>
+        <v>1.000234669525855</v>
       </c>
       <c r="L15">
-        <v>0.9955250115729624</v>
+        <v>0.9996186027502157</v>
       </c>
       <c r="M15">
-        <v>1.002467715250598</v>
+        <v>1.000133450209634</v>
       </c>
       <c r="N15">
-        <v>1.002467715250598</v>
+        <v>1.000133450209634</v>
       </c>
       <c r="O15">
-        <v>1.003933278184607</v>
+        <v>1.000254299448248</v>
       </c>
       <c r="P15">
-        <v>1.002058012176933</v>
+        <v>1.000167189981707</v>
       </c>
       <c r="Q15">
-        <v>1.002058012176933</v>
+        <v>1.000167189981707</v>
       </c>
       <c r="R15">
-        <v>1.0018531606401</v>
+        <v>1.000184059867744</v>
       </c>
       <c r="S15">
-        <v>1.0018531606401</v>
+        <v>1.000184059867744</v>
       </c>
       <c r="T15">
-        <v>0.999425519606692</v>
+        <v>0.9999444986588495</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.003382118774417</v>
+        <v>1.000468916833757</v>
       </c>
       <c r="D16">
-        <v>1.013355496663722</v>
+        <v>1.001242213299469</v>
       </c>
       <c r="E16">
-        <v>0.9929469260791584</v>
+        <v>0.999258616438067</v>
       </c>
       <c r="F16">
-        <v>1.013355496663722</v>
+        <v>1.001242213299469</v>
       </c>
       <c r="G16">
-        <v>0.9959892574160794</v>
+        <v>0.9996114753820033</v>
       </c>
       <c r="H16">
-        <v>1.003382118774417</v>
+        <v>1.000468916833757</v>
       </c>
       <c r="I16">
-        <v>0.9793053856629585</v>
+        <v>0.9978038094803073</v>
       </c>
       <c r="J16">
-        <v>1.009703848358699</v>
+        <v>1.000956953818414</v>
       </c>
       <c r="K16">
-        <v>1.003382118774417</v>
+        <v>1.000468916833757</v>
       </c>
       <c r="L16">
-        <v>0.9929469260791584</v>
+        <v>0.999258616438067</v>
       </c>
       <c r="M16">
-        <v>1.00315121137144</v>
+        <v>1.000250414868768</v>
       </c>
       <c r="N16">
-        <v>1.00315121137144</v>
+        <v>1.000250414868768</v>
       </c>
       <c r="O16">
-        <v>1.005335423700527</v>
+        <v>1.000485927851984</v>
       </c>
       <c r="P16">
-        <v>1.003228180505766</v>
+        <v>1.000323248857098</v>
       </c>
       <c r="Q16">
-        <v>1.003228180505766</v>
+        <v>1.000323248857098</v>
       </c>
       <c r="R16">
-        <v>1.003266665072928</v>
+        <v>1.000359665851262</v>
       </c>
       <c r="S16">
-        <v>1.003266665072928</v>
+        <v>1.000359665851262</v>
       </c>
       <c r="T16">
-        <v>0.9991138388258389</v>
+        <v>0.9998903308753363</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000378886380182</v>
+        <v>1.000779295450322</v>
       </c>
       <c r="D17">
-        <v>1.012339320203491</v>
+        <v>1.002453640600924</v>
       </c>
       <c r="E17">
-        <v>0.9950065594208785</v>
+        <v>0.9986170181907268</v>
       </c>
       <c r="F17">
-        <v>1.012339320203491</v>
+        <v>1.002453640600924</v>
       </c>
       <c r="G17">
-        <v>0.9965728364981933</v>
+        <v>0.9992474267875902</v>
       </c>
       <c r="H17">
-        <v>1.000378886380182</v>
+        <v>1.000779295450322</v>
       </c>
       <c r="I17">
-        <v>0.9857414830737043</v>
+        <v>0.9959215857277481</v>
       </c>
       <c r="J17">
-        <v>1.007984800575847</v>
+        <v>1.001837942040647</v>
       </c>
       <c r="K17">
-        <v>1.000378886380182</v>
+        <v>1.000779295450322</v>
       </c>
       <c r="L17">
-        <v>0.9950065594208785</v>
+        <v>0.9986170181907268</v>
       </c>
       <c r="M17">
-        <v>1.003672939812185</v>
+        <v>1.000535329395825</v>
       </c>
       <c r="N17">
-        <v>1.003672939812185</v>
+        <v>1.000535329395825</v>
       </c>
       <c r="O17">
-        <v>1.005110226733406</v>
+        <v>1.000969533610766</v>
       </c>
       <c r="P17">
-        <v>1.002574922001517</v>
+        <v>1.000616651413991</v>
       </c>
       <c r="Q17">
-        <v>1.002574922001517</v>
+        <v>1.000616651413991</v>
       </c>
       <c r="R17">
-        <v>1.002025913096183</v>
+        <v>1.000657312423074</v>
       </c>
       <c r="S17">
-        <v>1.002025913096183</v>
+        <v>1.000657312423074</v>
       </c>
       <c r="T17">
-        <v>0.9996706476920494</v>
+        <v>0.9998094847996599</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9945297671719183</v>
+        <v>1.001086106178657</v>
       </c>
       <c r="D18">
-        <v>1.010073020400663</v>
+        <v>1.00363205135597</v>
       </c>
       <c r="E18">
-        <v>0.9991298156559812</v>
+        <v>0.9979898719174179</v>
       </c>
       <c r="F18">
-        <v>1.010073020400663</v>
+        <v>1.00363205135597</v>
       </c>
       <c r="G18">
-        <v>0.9977886947571261</v>
+        <v>0.998892561747999</v>
       </c>
       <c r="H18">
-        <v>0.9945297671719183</v>
+        <v>1.001086106178657</v>
       </c>
       <c r="I18">
-        <v>0.9985972849778778</v>
+        <v>0.9940793566808686</v>
       </c>
       <c r="J18">
-        <v>1.004452305376183</v>
+        <v>1.002697696255538</v>
       </c>
       <c r="K18">
-        <v>0.9945297671719183</v>
+        <v>1.001086106178657</v>
       </c>
       <c r="L18">
-        <v>0.9991298156559812</v>
+        <v>0.9979898719174179</v>
       </c>
       <c r="M18">
-        <v>1.004601418028322</v>
+        <v>1.000810961636694</v>
       </c>
       <c r="N18">
-        <v>1.004601418028322</v>
+        <v>1.000810961636694</v>
       </c>
       <c r="O18">
-        <v>1.004551713810942</v>
+        <v>1.001439873176308</v>
       </c>
       <c r="P18">
-        <v>1.001244201076188</v>
+        <v>1.000902676484015</v>
       </c>
       <c r="Q18">
-        <v>1.001244201076188</v>
+        <v>1.000902676484015</v>
       </c>
       <c r="R18">
-        <v>0.9995655926001202</v>
+        <v>1.000948533907675</v>
       </c>
       <c r="S18">
-        <v>0.9995655926001202</v>
+        <v>1.000948533907675</v>
       </c>
       <c r="T18">
-        <v>1.000761814723292</v>
+        <v>0.9997296073560751</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9927747027630728</v>
+        <v>0.9999627143675541</v>
       </c>
       <c r="D19">
-        <v>1.011452549747756</v>
+        <v>1.000052447267427</v>
       </c>
       <c r="E19">
-        <v>0.9995716989447081</v>
+        <v>1.000000538837281</v>
       </c>
       <c r="F19">
-        <v>1.011452549747756</v>
+        <v>1.000052447267427</v>
       </c>
       <c r="G19">
-        <v>0.9975900697150011</v>
+        <v>0.9999895122015096</v>
       </c>
       <c r="H19">
-        <v>0.9927747027630728</v>
+        <v>0.9999627143675541</v>
       </c>
       <c r="I19">
-        <v>1.000211266174402</v>
+        <v>1.000009783799934</v>
       </c>
       <c r="J19">
-        <v>1.004693007968605</v>
+        <v>1.000019454717874</v>
       </c>
       <c r="K19">
-        <v>0.9927747027630728</v>
+        <v>0.9999627143675541</v>
       </c>
       <c r="L19">
-        <v>0.9995716989447081</v>
+        <v>1.000000538837281</v>
       </c>
       <c r="M19">
-        <v>1.005512124346232</v>
+        <v>1.000026493052354</v>
       </c>
       <c r="N19">
-        <v>1.005512124346232</v>
+        <v>1.000026493052354</v>
       </c>
       <c r="O19">
-        <v>1.00523908555369</v>
+        <v>1.00002414694086</v>
       </c>
       <c r="P19">
-        <v>1.001266317151846</v>
+        <v>1.000005233490754</v>
       </c>
       <c r="Q19">
-        <v>1.001266317151846</v>
+        <v>1.000005233490754</v>
       </c>
       <c r="R19">
-        <v>0.9991434135546525</v>
+        <v>0.999994603709954</v>
       </c>
       <c r="S19">
-        <v>0.9991434135546525</v>
+        <v>0.999994603709954</v>
       </c>
       <c r="T19">
-        <v>1.001048882552258</v>
+        <v>1.000005741865263</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9998483766708363</v>
+        <v>0.9999553425926555</v>
       </c>
       <c r="D20">
-        <v>1.000091710999417</v>
+        <v>1.000015348119468</v>
       </c>
       <c r="E20">
-        <v>1.000047485218225</v>
+        <v>1.000019603999315</v>
       </c>
       <c r="F20">
-        <v>1.000091710999417</v>
+        <v>1.000015348119468</v>
       </c>
       <c r="G20">
-        <v>0.9999894370569756</v>
+        <v>1.000000869648816</v>
       </c>
       <c r="H20">
-        <v>0.9998483766708363</v>
+        <v>0.9999553425926555</v>
       </c>
       <c r="I20">
-        <v>1.000158982200722</v>
+        <v>1.000068448738137</v>
       </c>
       <c r="J20">
-        <v>1.000007482038146</v>
+        <v>0.9999913712133588</v>
       </c>
       <c r="K20">
-        <v>0.9998483766708363</v>
+        <v>0.9999553425926555</v>
       </c>
       <c r="L20">
-        <v>1.000047485218225</v>
+        <v>1.000019603999315</v>
       </c>
       <c r="M20">
-        <v>1.000069598108821</v>
+        <v>1.000017476059392</v>
       </c>
       <c r="N20">
-        <v>1.000069598108821</v>
+        <v>1.000017476059392</v>
       </c>
       <c r="O20">
-        <v>1.00004889275193</v>
+        <v>1.000008774444048</v>
       </c>
       <c r="P20">
-        <v>0.9999958576294929</v>
+        <v>0.9999967649038132</v>
       </c>
       <c r="Q20">
-        <v>0.9999958576294929</v>
+        <v>0.9999967649038132</v>
       </c>
       <c r="R20">
-        <v>0.9999589873898288</v>
+        <v>0.9999864093260238</v>
       </c>
       <c r="S20">
-        <v>0.9999589873898288</v>
+        <v>0.9999864093260238</v>
       </c>
       <c r="T20">
-        <v>1.000023912364054</v>
+        <v>1.000008497385292</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000135369521953</v>
+        <v>0.9999993294141523</v>
       </c>
       <c r="D21">
-        <v>0.9999921960152732</v>
+        <v>0.9999543569232847</v>
       </c>
       <c r="E21">
-        <v>0.999929304999181</v>
+        <v>1.00001946011932</v>
       </c>
       <c r="F21">
-        <v>0.9999921960152732</v>
+        <v>0.9999543569232847</v>
       </c>
       <c r="G21">
-        <v>0.9999893828456905</v>
+        <v>1.000013591726827</v>
       </c>
       <c r="H21">
-        <v>1.000135369521953</v>
+        <v>0.9999993294141523</v>
       </c>
       <c r="I21">
-        <v>0.9997798254349175</v>
+        <v>1.000062610889037</v>
       </c>
       <c r="J21">
-        <v>1.000039147576424</v>
+        <v>0.9999663856037819</v>
       </c>
       <c r="K21">
-        <v>1.000135369521953</v>
+        <v>0.9999993294141523</v>
       </c>
       <c r="L21">
-        <v>0.999929304999181</v>
+        <v>1.00001946011932</v>
       </c>
       <c r="M21">
-        <v>0.9999607505072271</v>
+        <v>0.9999869085213025</v>
       </c>
       <c r="N21">
-        <v>0.9999607505072271</v>
+        <v>0.9999869085213025</v>
       </c>
       <c r="O21">
-        <v>0.9999868828636259</v>
+        <v>0.9999800675487956</v>
       </c>
       <c r="P21">
-        <v>1.000018956845469</v>
+        <v>0.9999910488189191</v>
       </c>
       <c r="Q21">
-        <v>1.000018956845469</v>
+        <v>0.9999910488189191</v>
       </c>
       <c r="R21">
-        <v>1.00004806001459</v>
+        <v>0.9999931189677274</v>
       </c>
       <c r="S21">
-        <v>1.00004806001459</v>
+        <v>0.9999931189677274</v>
       </c>
       <c r="T21">
-        <v>0.9999775377322399</v>
+        <v>1.000002622446067</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9996983731264427</v>
+        <v>0.9999226536343783</v>
       </c>
       <c r="D22">
-        <v>1.000415810252639</v>
+        <v>0.9999803548825058</v>
       </c>
       <c r="E22">
-        <v>1.000003100088122</v>
+        <v>1.000053152231245</v>
       </c>
       <c r="F22">
-        <v>1.000415810252639</v>
+        <v>0.9999803548825058</v>
       </c>
       <c r="G22">
-        <v>0.9999142587823107</v>
+        <v>1.000015107538271</v>
       </c>
       <c r="H22">
-        <v>0.9996983731264427</v>
+        <v>0.9999226536343783</v>
       </c>
       <c r="I22">
-        <v>1.000052090334274</v>
+        <v>1.000179686373764</v>
       </c>
       <c r="J22">
-        <v>1.000166132927129</v>
+        <v>0.9999516688429281</v>
       </c>
       <c r="K22">
-        <v>0.9996983731264427</v>
+        <v>0.9999226536343783</v>
       </c>
       <c r="L22">
-        <v>1.000003100088122</v>
+        <v>1.000053152231245</v>
       </c>
       <c r="M22">
-        <v>1.000209455170381</v>
+        <v>1.000016753556875</v>
       </c>
       <c r="N22">
-        <v>1.000209455170381</v>
+        <v>1.000016753556875</v>
       </c>
       <c r="O22">
-        <v>1.00019501442263</v>
+        <v>0.9999950586522263</v>
       </c>
       <c r="P22">
-        <v>1.000039094489068</v>
+        <v>0.999985386916043</v>
       </c>
       <c r="Q22">
-        <v>1.000039094489068</v>
+        <v>0.9999853869160429</v>
       </c>
       <c r="R22">
-        <v>0.9999539141484116</v>
+        <v>0.9999697035956268</v>
       </c>
       <c r="S22">
-        <v>0.9999539141484116</v>
+        <v>0.9999697035956268</v>
       </c>
       <c r="T22">
-        <v>1.000041627585153</v>
+        <v>1.000017103917182</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000063012276881</v>
+      </c>
+      <c r="D23">
+        <v>0.9997355635290421</v>
+      </c>
+      <c r="E23">
+        <v>1.000073336406403</v>
+      </c>
+      <c r="F23">
+        <v>0.9997355635290421</v>
+      </c>
+      <c r="G23">
+        <v>1.000070329335867</v>
+      </c>
+      <c r="H23">
+        <v>1.000063012276881</v>
+      </c>
+      <c r="I23">
+        <v>1.00022585921459</v>
+      </c>
+      <c r="J23">
+        <v>0.9998363137402609</v>
+      </c>
+      <c r="K23">
+        <v>1.000063012276881</v>
+      </c>
+      <c r="L23">
+        <v>1.000073336406403</v>
+      </c>
+      <c r="M23">
+        <v>0.9999044499677227</v>
+      </c>
+      <c r="N23">
+        <v>0.9999044499677227</v>
+      </c>
+      <c r="O23">
+        <v>0.999881737891902</v>
+      </c>
+      <c r="P23">
+        <v>0.9999573040707753</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999573040707753</v>
+      </c>
+      <c r="R23">
+        <v>0.9999837311223017</v>
+      </c>
+      <c r="S23">
+        <v>0.9999837311223017</v>
+      </c>
+      <c r="T23">
+        <v>1.000000735750507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.008863424732987</v>
+      </c>
+      <c r="D24">
+        <v>1.009925210078327</v>
+      </c>
+      <c r="E24">
+        <v>0.9911358819209299</v>
+      </c>
+      <c r="F24">
+        <v>1.009925210078327</v>
+      </c>
+      <c r="G24">
+        <v>0.9963042578242463</v>
+      </c>
+      <c r="H24">
+        <v>1.008863424732987</v>
+      </c>
+      <c r="I24">
+        <v>0.9725733016785879</v>
+      </c>
+      <c r="J24">
+        <v>1.009792376101739</v>
+      </c>
+      <c r="K24">
+        <v>1.008863424732987</v>
+      </c>
+      <c r="L24">
+        <v>0.9911358819209299</v>
+      </c>
+      <c r="M24">
+        <v>1.000530545999629</v>
+      </c>
+      <c r="N24">
+        <v>1.000530545999629</v>
+      </c>
+      <c r="O24">
+        <v>1.003617822700332</v>
+      </c>
+      <c r="P24">
+        <v>1.003308172244082</v>
+      </c>
+      <c r="Q24">
+        <v>1.003308172244082</v>
+      </c>
+      <c r="R24">
+        <v>1.004696985366308</v>
+      </c>
+      <c r="S24">
+        <v>1.004696985366308</v>
+      </c>
+      <c r="T24">
+        <v>0.9980990753894696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9931793604043136</v>
+      </c>
+      <c r="D25">
+        <v>1.008751374021603</v>
+      </c>
+      <c r="E25">
+        <v>1.000484237578679</v>
+      </c>
+      <c r="F25">
+        <v>1.008751374021603</v>
+      </c>
+      <c r="G25">
+        <v>0.9983545414099195</v>
+      </c>
+      <c r="H25">
+        <v>0.9931793604043136</v>
+      </c>
+      <c r="I25">
+        <v>1.003188328247692</v>
+      </c>
+      <c r="J25">
+        <v>1.00283965906272</v>
+      </c>
+      <c r="K25">
+        <v>0.9931793604043136</v>
+      </c>
+      <c r="L25">
+        <v>1.000484237578679</v>
+      </c>
+      <c r="M25">
+        <v>1.004617805800141</v>
+      </c>
+      <c r="N25">
+        <v>1.004617805800141</v>
+      </c>
+      <c r="O25">
+        <v>1.004025090221001</v>
+      </c>
+      <c r="P25">
+        <v>1.000804990668198</v>
+      </c>
+      <c r="Q25">
+        <v>1.000804990668198</v>
+      </c>
+      <c r="R25">
+        <v>0.9988985831022272</v>
+      </c>
+      <c r="S25">
+        <v>0.9988985831022272</v>
+      </c>
+      <c r="T25">
+        <v>1.001132916787488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9769767332372369</v>
+      </c>
+      <c r="D26">
+        <v>1.054016405292263</v>
+      </c>
+      <c r="E26">
+        <v>0.991888797444474</v>
+      </c>
+      <c r="F26">
+        <v>1.054016405292263</v>
+      </c>
+      <c r="G26">
+        <v>0.9875412591114598</v>
+      </c>
+      <c r="H26">
+        <v>0.9769767332372369</v>
+      </c>
+      <c r="I26">
+        <v>0.9817478304955882</v>
+      </c>
+      <c r="J26">
+        <v>1.025957156279264</v>
+      </c>
+      <c r="K26">
+        <v>0.9769767332372369</v>
+      </c>
+      <c r="L26">
+        <v>0.991888797444474</v>
+      </c>
+      <c r="M26">
+        <v>1.022952601368369</v>
+      </c>
+      <c r="N26">
+        <v>1.022952601368369</v>
+      </c>
+      <c r="O26">
+        <v>1.023954119672</v>
+      </c>
+      <c r="P26">
+        <v>1.007627311991325</v>
+      </c>
+      <c r="Q26">
+        <v>1.007627311991325</v>
+      </c>
+      <c r="R26">
+        <v>0.9999646673028026</v>
+      </c>
+      <c r="S26">
+        <v>0.9999646673028026</v>
+      </c>
+      <c r="T26">
+        <v>1.003021363643381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.001238606029603</v>
+      </c>
+      <c r="D27">
+        <v>1.009410418928234</v>
+      </c>
+      <c r="E27">
+        <v>0.9955250115729624</v>
+      </c>
+      <c r="F27">
+        <v>1.009410418928234</v>
+      </c>
+      <c r="G27">
+        <v>0.9971907808806376</v>
+      </c>
+      <c r="H27">
+        <v>1.001238606029603</v>
+      </c>
+      <c r="I27">
+        <v>0.9863238961760903</v>
+      </c>
+      <c r="J27">
+        <v>1.006864404052626</v>
+      </c>
+      <c r="K27">
+        <v>1.001238606029603</v>
+      </c>
+      <c r="L27">
+        <v>0.9955250115729624</v>
+      </c>
+      <c r="M27">
+        <v>1.002467715250598</v>
+      </c>
+      <c r="N27">
+        <v>1.002467715250598</v>
+      </c>
+      <c r="O27">
+        <v>1.003933278184607</v>
+      </c>
+      <c r="P27">
+        <v>1.002058012176933</v>
+      </c>
+      <c r="Q27">
+        <v>1.002058012176933</v>
+      </c>
+      <c r="R27">
+        <v>1.0018531606401</v>
+      </c>
+      <c r="S27">
+        <v>1.0018531606401</v>
+      </c>
+      <c r="T27">
+        <v>0.999425519606692</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.003382118774417</v>
+      </c>
+      <c r="D28">
+        <v>1.013355496663722</v>
+      </c>
+      <c r="E28">
+        <v>0.9929469260791584</v>
+      </c>
+      <c r="F28">
+        <v>1.013355496663722</v>
+      </c>
+      <c r="G28">
+        <v>0.9959892574160794</v>
+      </c>
+      <c r="H28">
+        <v>1.003382118774417</v>
+      </c>
+      <c r="I28">
+        <v>0.9793053856629585</v>
+      </c>
+      <c r="J28">
+        <v>1.009703848358699</v>
+      </c>
+      <c r="K28">
+        <v>1.003382118774417</v>
+      </c>
+      <c r="L28">
+        <v>0.9929469260791584</v>
+      </c>
+      <c r="M28">
+        <v>1.00315121137144</v>
+      </c>
+      <c r="N28">
+        <v>1.00315121137144</v>
+      </c>
+      <c r="O28">
+        <v>1.005335423700527</v>
+      </c>
+      <c r="P28">
+        <v>1.003228180505766</v>
+      </c>
+      <c r="Q28">
+        <v>1.003228180505766</v>
+      </c>
+      <c r="R28">
+        <v>1.003266665072928</v>
+      </c>
+      <c r="S28">
+        <v>1.003266665072928</v>
+      </c>
+      <c r="T28">
+        <v>0.9991138388258389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.000378886380182</v>
+      </c>
+      <c r="D29">
+        <v>1.012339320203491</v>
+      </c>
+      <c r="E29">
+        <v>0.9950065594208785</v>
+      </c>
+      <c r="F29">
+        <v>1.012339320203491</v>
+      </c>
+      <c r="G29">
+        <v>0.9965728364981933</v>
+      </c>
+      <c r="H29">
+        <v>1.000378886380182</v>
+      </c>
+      <c r="I29">
+        <v>0.9857414830737043</v>
+      </c>
+      <c r="J29">
+        <v>1.007984800575847</v>
+      </c>
+      <c r="K29">
+        <v>1.000378886380182</v>
+      </c>
+      <c r="L29">
+        <v>0.9950065594208785</v>
+      </c>
+      <c r="M29">
+        <v>1.003672939812185</v>
+      </c>
+      <c r="N29">
+        <v>1.003672939812185</v>
+      </c>
+      <c r="O29">
+        <v>1.005110226733406</v>
+      </c>
+      <c r="P29">
+        <v>1.002574922001517</v>
+      </c>
+      <c r="Q29">
+        <v>1.002574922001517</v>
+      </c>
+      <c r="R29">
+        <v>1.002025913096183</v>
+      </c>
+      <c r="S29">
+        <v>1.002025913096183</v>
+      </c>
+      <c r="T29">
+        <v>0.9996706476920494</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9945297671719183</v>
+      </c>
+      <c r="D30">
+        <v>1.010073020400663</v>
+      </c>
+      <c r="E30">
+        <v>0.9991298156559812</v>
+      </c>
+      <c r="F30">
+        <v>1.010073020400663</v>
+      </c>
+      <c r="G30">
+        <v>0.9977886947571261</v>
+      </c>
+      <c r="H30">
+        <v>0.9945297671719183</v>
+      </c>
+      <c r="I30">
+        <v>0.9985972849778778</v>
+      </c>
+      <c r="J30">
+        <v>1.004452305376183</v>
+      </c>
+      <c r="K30">
+        <v>0.9945297671719183</v>
+      </c>
+      <c r="L30">
+        <v>0.9991298156559812</v>
+      </c>
+      <c r="M30">
+        <v>1.004601418028322</v>
+      </c>
+      <c r="N30">
+        <v>1.004601418028322</v>
+      </c>
+      <c r="O30">
+        <v>1.004551713810942</v>
+      </c>
+      <c r="P30">
+        <v>1.001244201076188</v>
+      </c>
+      <c r="Q30">
+        <v>1.001244201076188</v>
+      </c>
+      <c r="R30">
+        <v>0.9995655926001202</v>
+      </c>
+      <c r="S30">
+        <v>0.9995655926001202</v>
+      </c>
+      <c r="T30">
+        <v>1.000761814723292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9927747027630728</v>
+      </c>
+      <c r="D31">
+        <v>1.011452549747756</v>
+      </c>
+      <c r="E31">
+        <v>0.9995716989447081</v>
+      </c>
+      <c r="F31">
+        <v>1.011452549747756</v>
+      </c>
+      <c r="G31">
+        <v>0.9975900697150011</v>
+      </c>
+      <c r="H31">
+        <v>0.9927747027630728</v>
+      </c>
+      <c r="I31">
+        <v>1.000211266174402</v>
+      </c>
+      <c r="J31">
+        <v>1.004693007968605</v>
+      </c>
+      <c r="K31">
+        <v>0.9927747027630728</v>
+      </c>
+      <c r="L31">
+        <v>0.9995716989447081</v>
+      </c>
+      <c r="M31">
+        <v>1.005512124346232</v>
+      </c>
+      <c r="N31">
+        <v>1.005512124346232</v>
+      </c>
+      <c r="O31">
+        <v>1.00523908555369</v>
+      </c>
+      <c r="P31">
+        <v>1.001266317151846</v>
+      </c>
+      <c r="Q31">
+        <v>1.001266317151846</v>
+      </c>
+      <c r="R31">
+        <v>0.9991434135546525</v>
+      </c>
+      <c r="S31">
+        <v>0.9991434135546525</v>
+      </c>
+      <c r="T31">
+        <v>1.001048882552258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.00800391479452</v>
+      </c>
+      <c r="D32">
+        <v>1.010828509315069</v>
+      </c>
+      <c r="E32">
+        <v>0.9913779386301371</v>
+      </c>
+      <c r="F32">
+        <v>1.010828509315069</v>
+      </c>
+      <c r="G32">
+        <v>0.9962251632876706</v>
+      </c>
+      <c r="H32">
+        <v>1.00800391479452</v>
+      </c>
+      <c r="I32">
+        <v>0.9740243002739729</v>
+      </c>
+      <c r="J32">
+        <v>1.009700781095891</v>
+      </c>
+      <c r="K32">
+        <v>1.00800391479452</v>
+      </c>
+      <c r="L32">
+        <v>0.9913779386301371</v>
+      </c>
+      <c r="M32">
+        <v>1.001103223972603</v>
+      </c>
+      <c r="N32">
+        <v>1.001103223972603</v>
+      </c>
+      <c r="O32">
+        <v>1.003969076347032</v>
+      </c>
+      <c r="P32">
+        <v>1.003403454246575</v>
+      </c>
+      <c r="Q32">
+        <v>1.003403454246575</v>
+      </c>
+      <c r="R32">
+        <v>1.004553569383562</v>
+      </c>
+      <c r="S32">
+        <v>1.004553569383562</v>
+      </c>
+      <c r="T32">
+        <v>0.9983601012328767</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9972955105263158</v>
+      </c>
+      <c r="D33">
+        <v>0.9350788800000001</v>
+      </c>
+      <c r="E33">
+        <v>1.026987847368421</v>
+      </c>
+      <c r="F33">
+        <v>0.9350788800000001</v>
+      </c>
+      <c r="G33">
+        <v>1.018331195263158</v>
+      </c>
+      <c r="H33">
+        <v>0.9972955105263158</v>
+      </c>
+      <c r="I33">
+        <v>1.078848558947368</v>
+      </c>
+      <c r="J33">
+        <v>0.9567358163157894</v>
+      </c>
+      <c r="K33">
+        <v>0.9972955105263158</v>
+      </c>
+      <c r="L33">
+        <v>1.026987847368421</v>
+      </c>
+      <c r="M33">
+        <v>0.9810333636842107</v>
+      </c>
+      <c r="N33">
+        <v>0.9810333636842107</v>
+      </c>
+      <c r="O33">
+        <v>0.9729341812280703</v>
+      </c>
+      <c r="P33">
+        <v>0.9864540792982458</v>
+      </c>
+      <c r="Q33">
+        <v>0.9864540792982458</v>
+      </c>
+      <c r="R33">
+        <v>0.9891644371052633</v>
+      </c>
+      <c r="S33">
+        <v>0.9891644371052633</v>
+      </c>
+      <c r="T33">
+        <v>1.002212968070175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.042047795263158</v>
+      </c>
+      <c r="D34">
+        <v>0.8598247699999998</v>
+      </c>
+      <c r="E34">
+        <v>1.031254493684211</v>
+      </c>
+      <c r="F34">
+        <v>0.8598247699999998</v>
+      </c>
+      <c r="G34">
+        <v>1.034401231578947</v>
+      </c>
+      <c r="H34">
+        <v>1.042047795263158</v>
+      </c>
+      <c r="I34">
+        <v>1.08181299</v>
+      </c>
+      <c r="J34">
+        <v>0.9251084300000001</v>
+      </c>
+      <c r="K34">
+        <v>1.042047795263158</v>
+      </c>
+      <c r="L34">
+        <v>1.031254493684211</v>
+      </c>
+      <c r="M34">
+        <v>0.9455396318421052</v>
+      </c>
+      <c r="N34">
+        <v>0.9455396318421052</v>
+      </c>
+      <c r="O34">
+        <v>0.9387292312280703</v>
+      </c>
+      <c r="P34">
+        <v>0.9777090196491228</v>
+      </c>
+      <c r="Q34">
+        <v>0.9777090196491227</v>
+      </c>
+      <c r="R34">
+        <v>0.9937937135526316</v>
+      </c>
+      <c r="S34">
+        <v>0.9937937135526316</v>
+      </c>
+      <c r="T34">
+        <v>0.9957416184210525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9713547278545638</v>
+      </c>
+      <c r="D35">
+        <v>1.045488028316423</v>
+      </c>
+      <c r="E35">
+        <v>0.9982712503967428</v>
+      </c>
+      <c r="F35">
+        <v>1.045488028316423</v>
+      </c>
+      <c r="G35">
+        <v>0.9904238682190661</v>
+      </c>
+      <c r="H35">
+        <v>0.9713547278545638</v>
+      </c>
+      <c r="I35">
+        <v>1.000758686333211</v>
+      </c>
+      <c r="J35">
+        <v>1.01865385307358</v>
+      </c>
+      <c r="K35">
+        <v>0.9713547278545638</v>
+      </c>
+      <c r="L35">
+        <v>0.9982712503967428</v>
+      </c>
+      <c r="M35">
+        <v>1.021879639356583</v>
+      </c>
+      <c r="N35">
+        <v>1.021879639356583</v>
+      </c>
+      <c r="O35">
+        <v>1.020804377262248</v>
+      </c>
+      <c r="P35">
+        <v>1.005038002189243</v>
+      </c>
+      <c r="Q35">
+        <v>1.005038002189243</v>
+      </c>
+      <c r="R35">
+        <v>0.9966171836055733</v>
+      </c>
+      <c r="S35">
+        <v>0.9966171836055733</v>
+      </c>
+      <c r="T35">
+        <v>1.004158402365598</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9998483766708363</v>
+      </c>
+      <c r="D36">
+        <v>1.000091710999417</v>
+      </c>
+      <c r="E36">
+        <v>1.000047485218225</v>
+      </c>
+      <c r="F36">
+        <v>1.000091710999417</v>
+      </c>
+      <c r="G36">
+        <v>0.9999894370569756</v>
+      </c>
+      <c r="H36">
+        <v>0.9998483766708363</v>
+      </c>
+      <c r="I36">
+        <v>1.000158982200722</v>
+      </c>
+      <c r="J36">
+        <v>1.000007482038146</v>
+      </c>
+      <c r="K36">
+        <v>0.9998483766708363</v>
+      </c>
+      <c r="L36">
+        <v>1.000047485218225</v>
+      </c>
+      <c r="M36">
+        <v>1.000069598108821</v>
+      </c>
+      <c r="N36">
+        <v>1.000069598108821</v>
+      </c>
+      <c r="O36">
+        <v>1.00004889275193</v>
+      </c>
+      <c r="P36">
+        <v>0.9999958576294929</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999958576294929</v>
+      </c>
+      <c r="R36">
+        <v>0.9999589873898288</v>
+      </c>
+      <c r="S36">
+        <v>0.9999589873898288</v>
+      </c>
+      <c r="T36">
+        <v>1.000023912364054</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000135369521953</v>
+      </c>
+      <c r="D37">
+        <v>0.9999921960152732</v>
+      </c>
+      <c r="E37">
+        <v>0.999929304999181</v>
+      </c>
+      <c r="F37">
+        <v>0.9999921960152732</v>
+      </c>
+      <c r="G37">
+        <v>0.9999893828456905</v>
+      </c>
+      <c r="H37">
+        <v>1.000135369521953</v>
+      </c>
+      <c r="I37">
+        <v>0.9997798254349175</v>
+      </c>
+      <c r="J37">
+        <v>1.000039147576424</v>
+      </c>
+      <c r="K37">
+        <v>1.000135369521953</v>
+      </c>
+      <c r="L37">
+        <v>0.999929304999181</v>
+      </c>
+      <c r="M37">
+        <v>0.9999607505072271</v>
+      </c>
+      <c r="N37">
+        <v>0.9999607505072271</v>
+      </c>
+      <c r="O37">
+        <v>0.9999868828636259</v>
+      </c>
+      <c r="P37">
+        <v>1.000018956845469</v>
+      </c>
+      <c r="Q37">
+        <v>1.000018956845469</v>
+      </c>
+      <c r="R37">
+        <v>1.00004806001459</v>
+      </c>
+      <c r="S37">
+        <v>1.00004806001459</v>
+      </c>
+      <c r="T37">
+        <v>0.9999775377322399</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9996983731264427</v>
+      </c>
+      <c r="D38">
+        <v>1.000415810252639</v>
+      </c>
+      <c r="E38">
+        <v>1.000003100088122</v>
+      </c>
+      <c r="F38">
+        <v>1.000415810252639</v>
+      </c>
+      <c r="G38">
+        <v>0.9999142587823107</v>
+      </c>
+      <c r="H38">
+        <v>0.9996983731264427</v>
+      </c>
+      <c r="I38">
+        <v>1.000052090334274</v>
+      </c>
+      <c r="J38">
+        <v>1.000166132927129</v>
+      </c>
+      <c r="K38">
+        <v>0.9996983731264427</v>
+      </c>
+      <c r="L38">
+        <v>1.000003100088122</v>
+      </c>
+      <c r="M38">
+        <v>1.000209455170381</v>
+      </c>
+      <c r="N38">
+        <v>1.000209455170381</v>
+      </c>
+      <c r="O38">
+        <v>1.00019501442263</v>
+      </c>
+      <c r="P38">
+        <v>1.000039094489068</v>
+      </c>
+      <c r="Q38">
+        <v>1.000039094489068</v>
+      </c>
+      <c r="R38">
+        <v>0.9999539141484116</v>
+      </c>
+      <c r="S38">
+        <v>0.9999539141484116</v>
+      </c>
+      <c r="T38">
+        <v>1.000041627585153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9988834422183701</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.001198805446123</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000141464736012</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.001198805446123</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9997746962487162</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9988834422183701</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000551829250686</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000404604375251</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9988834422183701</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000141464736012</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000670135091067</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000670135091067</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000581624852462</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000074570800168</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000074570800168</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9997767886547188</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9997767886547188</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000159140379193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.010103657102291</v>
+      </c>
+      <c r="D40">
+        <v>0.9508264336347302</v>
+      </c>
+      <c r="E40">
+        <v>1.013534364947753</v>
+      </c>
+      <c r="F40">
+        <v>0.9508264336347302</v>
+      </c>
+      <c r="G40">
+        <v>1.012534160784749</v>
+      </c>
+      <c r="H40">
+        <v>1.010103657102291</v>
+      </c>
+      <c r="I40">
+        <v>1.036870862718916</v>
+      </c>
+      <c r="J40">
+        <v>0.9720901771001138</v>
+      </c>
+      <c r="K40">
+        <v>1.010103657102291</v>
+      </c>
+      <c r="L40">
+        <v>1.013534364947753</v>
+      </c>
+      <c r="M40">
+        <v>0.9821803992912417</v>
+      </c>
+      <c r="N40">
+        <v>0.9821803992912417</v>
+      </c>
+      <c r="O40">
+        <v>0.978816991894199</v>
+      </c>
+      <c r="P40">
+        <v>0.9914881518949249</v>
+      </c>
+      <c r="Q40">
+        <v>0.9914881518949249</v>
+      </c>
+      <c r="R40">
+        <v>0.9961420281967663</v>
+      </c>
+      <c r="S40">
+        <v>0.9961420281967663</v>
+      </c>
+      <c r="T40">
+        <v>0.9993266093814256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.000639329801984</v>
+      </c>
+      <c r="D41">
+        <v>1.004255795253804</v>
+      </c>
+      <c r="E41">
+        <v>0.9979790702918129</v>
+      </c>
+      <c r="F41">
+        <v>1.004255795253804</v>
+      </c>
+      <c r="G41">
+        <v>0.9987546572976899</v>
+      </c>
+      <c r="H41">
+        <v>1.000639329801984</v>
+      </c>
+      <c r="I41">
+        <v>0.9940490348680829</v>
+      </c>
+      <c r="J41">
+        <v>1.002987196148828</v>
+      </c>
+      <c r="K41">
+        <v>1.000639329801984</v>
+      </c>
+      <c r="L41">
+        <v>0.9979790702918129</v>
+      </c>
+      <c r="M41">
+        <v>1.001117432772809</v>
+      </c>
+      <c r="N41">
+        <v>1.001117432772809</v>
+      </c>
+      <c r="O41">
+        <v>1.001740687231482</v>
+      </c>
+      <c r="P41">
+        <v>1.000958065115867</v>
+      </c>
+      <c r="Q41">
+        <v>1.000958065115867</v>
+      </c>
+      <c r="R41">
+        <v>1.000878381287396</v>
+      </c>
+      <c r="S41">
+        <v>1.000878381287396</v>
+      </c>
+      <c r="T41">
+        <v>0.9997775139437004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9997978883121679</v>
+      </c>
+      <c r="D42">
+        <v>0.9960875888001007</v>
+      </c>
+      <c r="E42">
+        <v>1.00164383101841</v>
+      </c>
+      <c r="F42">
+        <v>0.9960875888001007</v>
+      </c>
+      <c r="G42">
+        <v>1.00110565686097</v>
+      </c>
+      <c r="H42">
+        <v>0.9997978883121679</v>
+      </c>
+      <c r="I42">
+        <v>1.004786826955982</v>
+      </c>
+      <c r="J42">
+        <v>0.9973920410197755</v>
+      </c>
+      <c r="K42">
+        <v>0.9997978883121679</v>
+      </c>
+      <c r="L42">
+        <v>1.00164383101841</v>
+      </c>
+      <c r="M42">
+        <v>0.9988657099092555</v>
+      </c>
+      <c r="N42">
+        <v>0.9988657099092555</v>
+      </c>
+      <c r="O42">
+        <v>0.9983744869460955</v>
+      </c>
+      <c r="P42">
+        <v>0.9991764360435597</v>
+      </c>
+      <c r="Q42">
+        <v>0.9991764360435597</v>
+      </c>
+      <c r="R42">
+        <v>0.9993317991107117</v>
+      </c>
+      <c r="S42">
+        <v>0.9993317991107117</v>
+      </c>
+      <c r="T42">
+        <v>1.000135638827901</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW30.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000234669525855</v>
+        <v>0.9999553425926555</v>
       </c>
       <c r="D3">
-        <v>1.000648297669052</v>
+        <v>1.000015348119468</v>
       </c>
       <c r="E3">
-        <v>0.9996186027502157</v>
+        <v>1.000019603999315</v>
       </c>
       <c r="F3">
-        <v>1.000234669525855</v>
+        <v>1.000015348119468</v>
       </c>
       <c r="G3">
-        <v>0.9988712091113666</v>
+        <v>1.000000869648816</v>
       </c>
       <c r="H3">
-        <v>1.000495997925478</v>
+        <v>0.9999553425926555</v>
       </c>
       <c r="I3">
-        <v>0.9997982149711302</v>
+        <v>1.000068448738137</v>
       </c>
       <c r="J3">
-        <v>1.000648297669052</v>
+        <v>0.9999913712133588</v>
       </c>
       <c r="K3">
-        <v>1.000234669525855</v>
+        <v>0.9999553425926555</v>
       </c>
       <c r="L3">
-        <v>0.9996186027502157</v>
+        <v>1.000019603999315</v>
       </c>
       <c r="M3">
-        <v>1.000133450209634</v>
+        <v>1.000017476059392</v>
       </c>
       <c r="N3">
-        <v>1.000133450209634</v>
+        <v>1.000017476059392</v>
       </c>
       <c r="O3">
-        <v>1.000254299448248</v>
+        <v>1.000008774444048</v>
       </c>
       <c r="P3">
-        <v>1.000167189981707</v>
+        <v>0.9999967649038132</v>
       </c>
       <c r="Q3">
-        <v>1.000167189981707</v>
+        <v>0.9999967649038132</v>
       </c>
       <c r="R3">
-        <v>1.000184059867744</v>
+        <v>0.9999864093260238</v>
       </c>
       <c r="S3">
-        <v>1.000184059867744</v>
+        <v>0.9999864093260238</v>
       </c>
       <c r="T3">
-        <v>0.9999444986588495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000008497385292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000468916833756</v>
+        <v>1.010103657102291</v>
       </c>
       <c r="D4">
-        <v>1.001242213299469</v>
+        <v>0.9508264336347302</v>
       </c>
       <c r="E4">
-        <v>0.999258616438067</v>
+        <v>1.013534364947753</v>
       </c>
       <c r="F4">
-        <v>1.000468916833756</v>
+        <v>0.9508264336347302</v>
       </c>
       <c r="G4">
-        <v>0.9978038094803073</v>
+        <v>1.012534160784749</v>
       </c>
       <c r="H4">
-        <v>1.000956953818414</v>
+        <v>1.010103657102291</v>
       </c>
       <c r="I4">
-        <v>0.9996114753820036</v>
+        <v>1.036870862718916</v>
       </c>
       <c r="J4">
-        <v>1.001242213299469</v>
+        <v>0.9720901771001138</v>
       </c>
       <c r="K4">
-        <v>1.000468916833756</v>
+        <v>1.010103657102291</v>
       </c>
       <c r="L4">
-        <v>0.999258616438067</v>
+        <v>1.013534364947753</v>
       </c>
       <c r="M4">
-        <v>1.000250414868768</v>
+        <v>0.9821803992912417</v>
       </c>
       <c r="N4">
-        <v>1.000250414868768</v>
+        <v>0.9821803992912417</v>
       </c>
       <c r="O4">
-        <v>1.000485927851983</v>
+        <v>0.978816991894199</v>
       </c>
       <c r="P4">
-        <v>1.000323248857097</v>
+        <v>0.9914881518949249</v>
       </c>
       <c r="Q4">
-        <v>1.000323248857098</v>
+        <v>0.9914881518949249</v>
       </c>
       <c r="R4">
-        <v>1.000359665851262</v>
+        <v>0.9961420281967663</v>
       </c>
       <c r="S4">
-        <v>1.000359665851262</v>
+        <v>0.9961420281967663</v>
       </c>
       <c r="T4">
-        <v>0.9998903308753363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9993266093814256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000779295450322</v>
+        <v>0.9940785671253572</v>
       </c>
       <c r="D5">
-        <v>1.002453640600924</v>
+        <v>1.010250575799712</v>
       </c>
       <c r="E5">
-        <v>0.9986170181907268</v>
+        <v>0.9993137955691641</v>
       </c>
       <c r="F5">
-        <v>1.000779295450322</v>
+        <v>1.010250575799712</v>
       </c>
       <c r="G5">
-        <v>0.9959215857277481</v>
+        <v>0.9977874906916424</v>
       </c>
       <c r="H5">
-        <v>1.001837942040647</v>
+        <v>0.9940785671253572</v>
       </c>
       <c r="I5">
-        <v>0.9992474267875904</v>
+        <v>0.9992210391570627</v>
       </c>
       <c r="J5">
-        <v>1.002453640600924</v>
+        <v>1.004396158321326</v>
       </c>
       <c r="K5">
-        <v>1.000779295450322</v>
+        <v>0.9940785671253572</v>
       </c>
       <c r="L5">
-        <v>0.9986170181907268</v>
+        <v>0.9993137955691641</v>
       </c>
       <c r="M5">
-        <v>1.000535329395825</v>
+        <v>1.004782185684438</v>
       </c>
       <c r="N5">
-        <v>1.000535329395825</v>
+        <v>1.004782185684438</v>
       </c>
       <c r="O5">
-        <v>1.000969533610766</v>
+        <v>1.004653509896734</v>
       </c>
       <c r="P5">
-        <v>1.000616651413991</v>
+        <v>1.001214312831411</v>
       </c>
       <c r="Q5">
-        <v>1.000616651413991</v>
+        <v>1.001214312831411</v>
       </c>
       <c r="R5">
-        <v>1.000657312423074</v>
+        <v>0.9994303764048976</v>
       </c>
       <c r="S5">
-        <v>1.000657312423074</v>
+        <v>0.9994303764048976</v>
       </c>
       <c r="T5">
-        <v>0.9998094847996599</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.000841271110711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001086106178657</v>
+        <v>0.9713547278545638</v>
       </c>
       <c r="D6">
-        <v>1.00363205135597</v>
+        <v>1.045488028316423</v>
       </c>
       <c r="E6">
-        <v>0.9979898719174176</v>
+        <v>0.9982712503967428</v>
       </c>
       <c r="F6">
-        <v>1.001086106178657</v>
+        <v>1.045488028316423</v>
       </c>
       <c r="G6">
-        <v>0.9940793566808686</v>
+        <v>0.9904238682190661</v>
       </c>
       <c r="H6">
-        <v>1.002697696255538</v>
+        <v>0.9713547278545638</v>
       </c>
       <c r="I6">
-        <v>0.998892561747999</v>
+        <v>1.000758686333211</v>
       </c>
       <c r="J6">
-        <v>1.00363205135597</v>
+        <v>1.01865385307358</v>
       </c>
       <c r="K6">
-        <v>1.001086106178657</v>
+        <v>0.9713547278545638</v>
       </c>
       <c r="L6">
-        <v>0.9979898719174176</v>
+        <v>0.9982712503967428</v>
       </c>
       <c r="M6">
-        <v>1.000810961636694</v>
+        <v>1.021879639356583</v>
       </c>
       <c r="N6">
-        <v>1.000810961636694</v>
+        <v>1.021879639356583</v>
       </c>
       <c r="O6">
-        <v>1.001439873176308</v>
+        <v>1.020804377262248</v>
       </c>
       <c r="P6">
-        <v>1.000902676484015</v>
+        <v>1.005038002189243</v>
       </c>
       <c r="Q6">
-        <v>1.000902676484015</v>
+        <v>1.005038002189243</v>
       </c>
       <c r="R6">
-        <v>1.000948533907675</v>
+        <v>0.9966171836055733</v>
       </c>
       <c r="S6">
-        <v>1.000948533907675</v>
+        <v>0.9966171836055733</v>
       </c>
       <c r="T6">
-        <v>0.9997296073560751</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.004158402365598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999627143675541</v>
+        <v>1.000506394063281</v>
       </c>
       <c r="D7">
-        <v>1.000052447267427</v>
+        <v>1.00004296892323</v>
       </c>
       <c r="E7">
-        <v>1.000000538837281</v>
+        <v>0.9997037562079225</v>
       </c>
       <c r="F7">
-        <v>0.9999627143675541</v>
+        <v>1.00004296892323</v>
       </c>
       <c r="G7">
-        <v>1.000009783799934</v>
+        <v>0.9999377619861038</v>
       </c>
       <c r="H7">
-        <v>1.000019454717874</v>
+        <v>1.000506394063281</v>
       </c>
       <c r="I7">
-        <v>0.9999895122015097</v>
+        <v>0.9990663782400415</v>
       </c>
       <c r="J7">
-        <v>1.000052447267427</v>
+        <v>1.00020421223388</v>
       </c>
       <c r="K7">
-        <v>0.9999627143675541</v>
+        <v>1.000506394063281</v>
       </c>
       <c r="L7">
-        <v>1.000000538837281</v>
+        <v>0.9997037562079225</v>
       </c>
       <c r="M7">
-        <v>1.000026493052354</v>
+        <v>0.9998733625655761</v>
       </c>
       <c r="N7">
-        <v>1.000026493052354</v>
+        <v>0.9998733625655761</v>
       </c>
       <c r="O7">
-        <v>1.000024146940861</v>
+        <v>0.9999836457883443</v>
       </c>
       <c r="P7">
-        <v>1.000005233490754</v>
+        <v>1.000084373064811</v>
       </c>
       <c r="Q7">
-        <v>1.000005233490754</v>
+        <v>1.000084373064811</v>
       </c>
       <c r="R7">
-        <v>0.9999946037099541</v>
+        <v>1.000189878314429</v>
       </c>
       <c r="S7">
-        <v>0.9999946037099541</v>
+        <v>1.000189878314429</v>
       </c>
       <c r="T7">
-        <v>1.000005741865263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.999910245275743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999553425926557</v>
+        <v>1.000135369521953</v>
       </c>
       <c r="D8">
-        <v>1.000015348119468</v>
+        <v>0.9999921960152732</v>
       </c>
       <c r="E8">
-        <v>1.000019603999315</v>
+        <v>0.999929304999181</v>
       </c>
       <c r="F8">
-        <v>0.9999553425926557</v>
+        <v>0.9999921960152732</v>
       </c>
       <c r="G8">
-        <v>1.000068448738137</v>
+        <v>0.9999893828456905</v>
       </c>
       <c r="H8">
-        <v>0.999991371213359</v>
+        <v>1.000135369521953</v>
       </c>
       <c r="I8">
-        <v>1.000000869648816</v>
+        <v>0.9997798254349175</v>
       </c>
       <c r="J8">
-        <v>1.000015348119468</v>
+        <v>1.000039147576424</v>
       </c>
       <c r="K8">
-        <v>0.9999553425926557</v>
+        <v>1.000135369521953</v>
       </c>
       <c r="L8">
-        <v>1.000019603999315</v>
+        <v>0.999929304999181</v>
       </c>
       <c r="M8">
-        <v>1.000017476059392</v>
+        <v>0.9999607505072271</v>
       </c>
       <c r="N8">
-        <v>1.000017476059392</v>
+        <v>0.9999607505072271</v>
       </c>
       <c r="O8">
-        <v>1.000008774444048</v>
+        <v>0.9999868828636259</v>
       </c>
       <c r="P8">
-        <v>0.9999967649038132</v>
+        <v>1.000018956845469</v>
       </c>
       <c r="Q8">
-        <v>0.9999967649038132</v>
+        <v>1.000018956845469</v>
       </c>
       <c r="R8">
-        <v>0.9999864093260238</v>
+        <v>1.00004806001459</v>
       </c>
       <c r="S8">
-        <v>0.9999864093260238</v>
+        <v>1.00004806001459</v>
       </c>
       <c r="T8">
-        <v>1.000008497385292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999775377322399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999993294141523</v>
+        <v>1.000468916833757</v>
       </c>
       <c r="D9">
-        <v>0.9999543569232847</v>
+        <v>1.001242213299469</v>
       </c>
       <c r="E9">
-        <v>1.00001946011932</v>
+        <v>0.999258616438067</v>
       </c>
       <c r="F9">
-        <v>0.9999993294141523</v>
+        <v>1.001242213299469</v>
       </c>
       <c r="G9">
-        <v>1.000062610889037</v>
+        <v>0.9996114753820033</v>
       </c>
       <c r="H9">
-        <v>0.9999663856037819</v>
+        <v>1.000468916833757</v>
       </c>
       <c r="I9">
-        <v>1.000013591726827</v>
+        <v>0.9978038094803073</v>
       </c>
       <c r="J9">
-        <v>0.9999543569232847</v>
+        <v>1.000956953818414</v>
       </c>
       <c r="K9">
-        <v>0.9999993294141523</v>
+        <v>1.000468916833757</v>
       </c>
       <c r="L9">
-        <v>1.00001946011932</v>
+        <v>0.999258616438067</v>
       </c>
       <c r="M9">
-        <v>0.9999869085213025</v>
+        <v>1.000250414868768</v>
       </c>
       <c r="N9">
-        <v>0.9999869085213025</v>
+        <v>1.000250414868768</v>
       </c>
       <c r="O9">
-        <v>0.9999800675487956</v>
+        <v>1.000485927851984</v>
       </c>
       <c r="P9">
-        <v>0.9999910488189191</v>
+        <v>1.000323248857098</v>
       </c>
       <c r="Q9">
-        <v>0.9999910488189191</v>
+        <v>1.000323248857098</v>
       </c>
       <c r="R9">
-        <v>0.9999931189677274</v>
+        <v>1.000359665851262</v>
       </c>
       <c r="S9">
-        <v>0.9999931189677274</v>
+        <v>1.000359665851262</v>
       </c>
       <c r="T9">
-        <v>1.000002622446067</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9998903308753363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999226536343783</v>
+        <v>0.9705960711371839</v>
       </c>
       <c r="D10">
-        <v>0.9999803548825058</v>
+        <v>1.046382879756474</v>
       </c>
       <c r="E10">
-        <v>1.000053152231245</v>
+        <v>0.9983476781588193</v>
       </c>
       <c r="F10">
-        <v>0.9999226536343783</v>
+        <v>1.046382879756474</v>
       </c>
       <c r="G10">
-        <v>1.000179686373764</v>
+        <v>0.990256831152961</v>
       </c>
       <c r="H10">
-        <v>0.9999516688429281</v>
+        <v>0.9705960711371839</v>
       </c>
       <c r="I10">
-        <v>1.000015107538271</v>
+        <v>1.001136733210692</v>
       </c>
       <c r="J10">
-        <v>0.9999803548825058</v>
+        <v>1.018944263907225</v>
       </c>
       <c r="K10">
-        <v>0.9999226536343783</v>
+        <v>0.9705960711371839</v>
       </c>
       <c r="L10">
-        <v>1.000053152231245</v>
+        <v>0.9983476781588193</v>
       </c>
       <c r="M10">
-        <v>1.000016753556875</v>
+        <v>1.022365278957647</v>
       </c>
       <c r="N10">
-        <v>1.000016753556875</v>
+        <v>1.022365278957647</v>
       </c>
       <c r="O10">
-        <v>0.9999950586522263</v>
+        <v>1.021224940607506</v>
       </c>
       <c r="P10">
-        <v>0.999985386916043</v>
+        <v>1.005108876350826</v>
       </c>
       <c r="Q10">
-        <v>0.9999853869160429</v>
+        <v>1.005108876350826</v>
       </c>
       <c r="R10">
-        <v>0.9999697035956268</v>
+        <v>0.9964806750474151</v>
       </c>
       <c r="S10">
-        <v>0.9999697035956268</v>
+        <v>0.9964806750474151</v>
       </c>
       <c r="T10">
-        <v>1.000017103917182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.004277409553892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000063012276881</v>
+        <v>1.009775343817654</v>
       </c>
       <c r="D11">
-        <v>0.9997355635290421</v>
+        <v>0.9618273712277114</v>
       </c>
       <c r="E11">
-        <v>1.000073336406403</v>
+        <v>1.009412214583346</v>
       </c>
       <c r="F11">
-        <v>1.000063012276881</v>
+        <v>0.9618273712277114</v>
       </c>
       <c r="G11">
-        <v>1.00022585921459</v>
+        <v>1.009518085689864</v>
       </c>
       <c r="H11">
-        <v>0.9998363137402609</v>
+        <v>1.009775343817654</v>
       </c>
       <c r="I11">
-        <v>1.000070329335867</v>
+        <v>1.025020026825408</v>
       </c>
       <c r="J11">
-        <v>0.9997355635290421</v>
+        <v>0.9790947148940952</v>
       </c>
       <c r="K11">
-        <v>1.000063012276881</v>
+        <v>1.009775343817654</v>
       </c>
       <c r="L11">
-        <v>1.000073336406403</v>
+        <v>1.009412214583346</v>
       </c>
       <c r="M11">
-        <v>0.9999044499677227</v>
+        <v>0.9856197929055287</v>
       </c>
       <c r="N11">
-        <v>0.9999044499677227</v>
+        <v>0.9856197929055287</v>
       </c>
       <c r="O11">
-        <v>0.999881737891902</v>
+        <v>0.9834447669017176</v>
       </c>
       <c r="P11">
-        <v>0.9999573040707753</v>
+        <v>0.9936716432095706</v>
       </c>
       <c r="Q11">
-        <v>0.9999573040707753</v>
+        <v>0.9936716432095706</v>
       </c>
       <c r="R11">
-        <v>0.9999837311223017</v>
+        <v>0.9976975683615916</v>
       </c>
       <c r="S11">
-        <v>0.9999837311223017</v>
+        <v>0.9976975683615916</v>
       </c>
       <c r="T11">
-        <v>1.000000735750507</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9991079595063465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.008863424732987</v>
+        <v>0.9914664739473674</v>
       </c>
       <c r="D12">
-        <v>1.009925210078327</v>
+        <v>1.012480610378946</v>
       </c>
       <c r="E12">
-        <v>0.9911358819209299</v>
+        <v>0.9999017091263152</v>
       </c>
       <c r="F12">
-        <v>1.008863424732987</v>
+        <v>1.012480610378946</v>
       </c>
       <c r="G12">
-        <v>0.9725733016785881</v>
+        <v>0.997442457284209</v>
       </c>
       <c r="H12">
-        <v>1.009792376101739</v>
+        <v>0.9914664739473674</v>
       </c>
       <c r="I12">
-        <v>0.9963042578242463</v>
+        <v>1.001418846600003</v>
       </c>
       <c r="J12">
-        <v>1.009925210078327</v>
+        <v>1.004870622515787</v>
       </c>
       <c r="K12">
-        <v>1.008863424732987</v>
+        <v>0.9914664739473674</v>
       </c>
       <c r="L12">
-        <v>0.9911358819209299</v>
+        <v>0.9999017091263152</v>
       </c>
       <c r="M12">
-        <v>1.000530545999629</v>
+        <v>1.006191159752631</v>
       </c>
       <c r="N12">
-        <v>1.000530545999629</v>
+        <v>1.006191159752631</v>
       </c>
       <c r="O12">
-        <v>1.003617822700332</v>
+        <v>1.005750980673683</v>
       </c>
       <c r="P12">
-        <v>1.003308172244082</v>
+        <v>1.001282931150876</v>
       </c>
       <c r="Q12">
-        <v>1.003308172244082</v>
+        <v>1.001282931150876</v>
       </c>
       <c r="R12">
-        <v>1.004696985366308</v>
+        <v>0.998828816849999</v>
       </c>
       <c r="S12">
-        <v>1.004696985366308</v>
+        <v>0.998828816849999</v>
       </c>
       <c r="T12">
-        <v>0.9980990753894696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.001263453308771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9931793604043136</v>
+        <v>1.002180992822214</v>
       </c>
       <c r="D13">
-        <v>1.008751374021603</v>
+        <v>0.9931837710772867</v>
       </c>
       <c r="E13">
-        <v>1.000484237578679</v>
+        <v>1.001449259960931</v>
       </c>
       <c r="F13">
-        <v>0.9931793604043136</v>
+        <v>0.9931837710772867</v>
       </c>
       <c r="G13">
-        <v>1.003188328247692</v>
+        <v>1.001662594289694</v>
       </c>
       <c r="H13">
-        <v>1.00283965906272</v>
+        <v>1.002180992822214</v>
       </c>
       <c r="I13">
-        <v>0.9983545414099195</v>
+        <v>1.003777637113132</v>
       </c>
       <c r="J13">
-        <v>1.008751374021603</v>
+        <v>0.9963911339604469</v>
       </c>
       <c r="K13">
-        <v>0.9931793604043136</v>
+        <v>1.002180992822214</v>
       </c>
       <c r="L13">
-        <v>1.000484237578679</v>
+        <v>1.001449259960931</v>
       </c>
       <c r="M13">
-        <v>1.004617805800141</v>
+        <v>0.9973165155191088</v>
       </c>
       <c r="N13">
-        <v>1.004617805800141</v>
+        <v>0.9973165155191088</v>
       </c>
       <c r="O13">
-        <v>1.004025090221001</v>
+        <v>0.9970080549995548</v>
       </c>
       <c r="P13">
-        <v>1.000804990668198</v>
+        <v>0.9989380079534772</v>
       </c>
       <c r="Q13">
-        <v>1.000804990668198</v>
+        <v>0.9989380079534773</v>
       </c>
       <c r="R13">
-        <v>0.9988985831022272</v>
+        <v>0.9997487541706616</v>
       </c>
       <c r="S13">
-        <v>0.9988985831022272</v>
+        <v>0.9997487541706616</v>
       </c>
       <c r="T13">
-        <v>1.001132916787488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9997742315372841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9769767332372369</v>
+        <v>0.9483685200000012</v>
       </c>
       <c r="D14">
-        <v>1.054016405292263</v>
+        <v>1.080651799999999</v>
       </c>
       <c r="E14">
-        <v>0.991888797444474</v>
+        <v>0.9974069900000013</v>
       </c>
       <c r="F14">
-        <v>0.9769767332372369</v>
+        <v>1.080651799999999</v>
       </c>
       <c r="G14">
-        <v>0.9817478304955882</v>
+        <v>0.9831100600000009</v>
       </c>
       <c r="H14">
-        <v>1.025957156279264</v>
+        <v>0.9483685200000012</v>
       </c>
       <c r="I14">
-        <v>0.9875412591114598</v>
+        <v>1.002875600000001</v>
       </c>
       <c r="J14">
-        <v>1.054016405292263</v>
+        <v>1.032757900000001</v>
       </c>
       <c r="K14">
-        <v>0.9769767332372369</v>
+        <v>0.9483685200000012</v>
       </c>
       <c r="L14">
-        <v>0.991888797444474</v>
+        <v>0.9974069900000013</v>
       </c>
       <c r="M14">
-        <v>1.022952601368369</v>
+        <v>1.039029395</v>
       </c>
       <c r="N14">
-        <v>1.022952601368369</v>
+        <v>1.039029395</v>
       </c>
       <c r="O14">
-        <v>1.023954119672</v>
+        <v>1.036938896666667</v>
       </c>
       <c r="P14">
-        <v>1.007627311991325</v>
+        <v>1.008809103333334</v>
       </c>
       <c r="Q14">
-        <v>1.007627311991325</v>
+        <v>1.008809103333334</v>
       </c>
       <c r="R14">
-        <v>0.9999646673028026</v>
+        <v>0.9936989575000006</v>
       </c>
       <c r="S14">
-        <v>0.9999646673028026</v>
+        <v>0.9936989575000006</v>
       </c>
       <c r="T14">
-        <v>1.003021363643381</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.007528478333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.001238606029603</v>
+        <v>1.1248129</v>
       </c>
       <c r="D15">
-        <v>1.009410418928234</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="E15">
-        <v>0.9955250115729624</v>
+        <v>1.0262848</v>
       </c>
       <c r="F15">
-        <v>1.001238606029603</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="G15">
-        <v>0.9863238961760903</v>
+        <v>1.0550102</v>
       </c>
       <c r="H15">
-        <v>1.006864404052626</v>
+        <v>1.1248129</v>
       </c>
       <c r="I15">
-        <v>0.9971907808806376</v>
+        <v>1.055856</v>
       </c>
       <c r="J15">
-        <v>1.009410418928234</v>
+        <v>0.88627042</v>
       </c>
       <c r="K15">
-        <v>1.001238606029603</v>
+        <v>1.1248129</v>
       </c>
       <c r="L15">
-        <v>0.9955250115729624</v>
+        <v>1.0262848</v>
       </c>
       <c r="M15">
-        <v>1.002467715250598</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N15">
-        <v>1.002467715250598</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O15">
-        <v>1.003933278184607</v>
+        <v>0.88964224</v>
       </c>
       <c r="P15">
-        <v>1.002058012176933</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q15">
-        <v>1.002058012176933</v>
+        <v>0.9691564</v>
       </c>
       <c r="R15">
-        <v>1.0018531606401</v>
+        <v>1.008070525</v>
       </c>
       <c r="S15">
-        <v>1.0018531606401</v>
+        <v>1.008070525</v>
       </c>
       <c r="T15">
-        <v>0.999425519606692</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9841009700000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9998483766708359</v>
+        <v>1.0695814</v>
       </c>
       <c r="D16">
-        <v>1.000091710999417</v>
+        <v>0.6445417</v>
       </c>
       <c r="E16">
-        <v>1.000047485218225</v>
+        <v>1.0998721</v>
       </c>
       <c r="F16">
-        <v>0.9998483766708359</v>
+        <v>0.6445417</v>
       </c>
       <c r="G16">
-        <v>1.000158982200722</v>
+        <v>1.091041</v>
       </c>
       <c r="H16">
-        <v>1.000007482038146</v>
+        <v>1.0695814</v>
       </c>
       <c r="I16">
-        <v>0.9999894370569755</v>
+        <v>1.2736103</v>
       </c>
       <c r="J16">
-        <v>1.000091710999417</v>
+        <v>0.79663964</v>
       </c>
       <c r="K16">
-        <v>0.9998483766708359</v>
+        <v>1.0695814</v>
       </c>
       <c r="L16">
-        <v>1.000047485218225</v>
+        <v>1.0998721</v>
       </c>
       <c r="M16">
-        <v>1.000069598108821</v>
+        <v>0.8722069</v>
       </c>
       <c r="N16">
-        <v>1.000069598108821</v>
+        <v>0.8722069</v>
       </c>
       <c r="O16">
-        <v>1.00004889275193</v>
+        <v>0.8470178133333333</v>
       </c>
       <c r="P16">
-        <v>0.9999958576294928</v>
+        <v>0.9379984</v>
       </c>
       <c r="Q16">
-        <v>0.9999958576294928</v>
+        <v>0.9379984</v>
       </c>
       <c r="R16">
-        <v>0.9999589873898286</v>
+        <v>0.9708941499999999</v>
       </c>
       <c r="S16">
-        <v>0.9999589873898286</v>
+        <v>0.9708941499999999</v>
       </c>
       <c r="T16">
-        <v>1.000023912364054</v>
+        <v>0.9958810233333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000135369521953</v>
+        <v>1.0221319</v>
       </c>
       <c r="D17">
-        <v>0.9999921960152731</v>
+        <v>0.86741896</v>
       </c>
       <c r="E17">
-        <v>0.999929304999181</v>
+        <v>1.0395623</v>
       </c>
       <c r="F17">
-        <v>1.000135369521953</v>
+        <v>0.86741896</v>
       </c>
       <c r="G17">
-        <v>0.9997798254349175</v>
+        <v>1.0344806</v>
       </c>
       <c r="H17">
-        <v>1.000039147576424</v>
+        <v>1.0221319</v>
       </c>
       <c r="I17">
-        <v>0.9999893828456905</v>
+        <v>1.1103551</v>
       </c>
       <c r="J17">
-        <v>0.9999921960152731</v>
+        <v>0.9221870100000001</v>
       </c>
       <c r="K17">
-        <v>1.000135369521953</v>
+        <v>1.0221319</v>
       </c>
       <c r="L17">
-        <v>0.999929304999181</v>
+        <v>1.0395623</v>
       </c>
       <c r="M17">
-        <v>0.999960750507227</v>
+        <v>0.95349063</v>
       </c>
       <c r="N17">
-        <v>0.999960750507227</v>
+        <v>0.95349063</v>
       </c>
       <c r="O17">
-        <v>0.9999868828636259</v>
+        <v>0.9430560900000001</v>
       </c>
       <c r="P17">
-        <v>1.000018956845469</v>
+        <v>0.9763710533333333</v>
       </c>
       <c r="Q17">
-        <v>1.000018956845469</v>
+        <v>0.9763710533333333</v>
       </c>
       <c r="R17">
-        <v>1.00004806001459</v>
+        <v>0.9878112649999999</v>
       </c>
       <c r="S17">
-        <v>1.00004806001459</v>
+        <v>0.9878112649999999</v>
       </c>
       <c r="T17">
-        <v>0.9999775377322399</v>
+        <v>0.9993559783333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9996983731264427</v>
+        <v>1.00800391479452</v>
       </c>
       <c r="D18">
-        <v>1.000415810252639</v>
+        <v>1.010828509315069</v>
       </c>
       <c r="E18">
-        <v>1.000003100088122</v>
+        <v>0.9913779386301371</v>
       </c>
       <c r="F18">
-        <v>0.9996983731264427</v>
+        <v>1.010828509315069</v>
       </c>
       <c r="G18">
-        <v>1.000052090334274</v>
+        <v>0.9962251632876706</v>
       </c>
       <c r="H18">
-        <v>1.000166132927129</v>
+        <v>1.00800391479452</v>
       </c>
       <c r="I18">
-        <v>0.9999142587823105</v>
+        <v>0.9740243002739729</v>
       </c>
       <c r="J18">
-        <v>1.000415810252639</v>
+        <v>1.009700781095891</v>
       </c>
       <c r="K18">
-        <v>0.9996983731264427</v>
+        <v>1.00800391479452</v>
       </c>
       <c r="L18">
-        <v>1.000003100088122</v>
+        <v>0.9913779386301371</v>
       </c>
       <c r="M18">
-        <v>1.000209455170381</v>
+        <v>1.001103223972603</v>
       </c>
       <c r="N18">
-        <v>1.000209455170381</v>
+        <v>1.001103223972603</v>
       </c>
       <c r="O18">
-        <v>1.00019501442263</v>
+        <v>1.003969076347032</v>
       </c>
       <c r="P18">
-        <v>1.000039094489068</v>
+        <v>1.003403454246575</v>
       </c>
       <c r="Q18">
-        <v>1.000039094489068</v>
+        <v>1.003403454246575</v>
       </c>
       <c r="R18">
-        <v>0.9999539141484116</v>
+        <v>1.004553569383562</v>
       </c>
       <c r="S18">
-        <v>0.9999539141484116</v>
+        <v>1.004553569383562</v>
       </c>
       <c r="T18">
-        <v>1.000041627585153</v>
+        <v>0.9983601012328767</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9988834422183701</v>
+        <v>0.9972955105263158</v>
       </c>
       <c r="D19">
-        <v>1.001198805446123</v>
+        <v>0.9350788800000001</v>
       </c>
       <c r="E19">
-        <v>1.000141464736012</v>
+        <v>1.026987847368421</v>
       </c>
       <c r="F19">
-        <v>0.9988834422183701</v>
+        <v>0.9350788800000001</v>
       </c>
       <c r="G19">
-        <v>1.000551829250686</v>
+        <v>1.018331195263158</v>
       </c>
       <c r="H19">
-        <v>1.000404604375251</v>
+        <v>0.9972955105263158</v>
       </c>
       <c r="I19">
-        <v>0.9997746962487162</v>
+        <v>1.078848558947368</v>
       </c>
       <c r="J19">
-        <v>1.001198805446123</v>
+        <v>0.9567358163157894</v>
       </c>
       <c r="K19">
-        <v>0.9988834422183701</v>
+        <v>0.9972955105263158</v>
       </c>
       <c r="L19">
-        <v>1.000141464736012</v>
+        <v>1.026987847368421</v>
       </c>
       <c r="M19">
-        <v>1.000670135091067</v>
+        <v>0.9810333636842107</v>
       </c>
       <c r="N19">
-        <v>1.000670135091067</v>
+        <v>0.9810333636842107</v>
       </c>
       <c r="O19">
-        <v>1.000581624852462</v>
+        <v>0.9729341812280703</v>
       </c>
       <c r="P19">
-        <v>1.000074570800168</v>
+        <v>0.9864540792982458</v>
       </c>
       <c r="Q19">
-        <v>1.000074570800168</v>
+        <v>0.9864540792982458</v>
       </c>
       <c r="R19">
-        <v>0.9997767886547188</v>
+        <v>0.9891644371052633</v>
       </c>
       <c r="S19">
-        <v>0.9997767886547188</v>
+        <v>0.9891644371052633</v>
       </c>
       <c r="T19">
-        <v>1.000159140379193</v>
+        <v>1.002212968070175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.042047795263158</v>
+      </c>
+      <c r="D20">
+        <v>0.8598247699999998</v>
+      </c>
+      <c r="E20">
+        <v>1.031254493684211</v>
+      </c>
+      <c r="F20">
+        <v>0.8598247699999998</v>
+      </c>
+      <c r="G20">
+        <v>1.034401231578947</v>
+      </c>
+      <c r="H20">
+        <v>1.042047795263158</v>
+      </c>
+      <c r="I20">
+        <v>1.08181299</v>
+      </c>
+      <c r="J20">
+        <v>0.9251084300000001</v>
+      </c>
+      <c r="K20">
+        <v>1.042047795263158</v>
+      </c>
+      <c r="L20">
+        <v>1.031254493684211</v>
+      </c>
+      <c r="M20">
+        <v>0.9455396318421052</v>
+      </c>
+      <c r="N20">
+        <v>0.9455396318421052</v>
+      </c>
+      <c r="O20">
+        <v>0.9387292312280703</v>
+      </c>
+      <c r="P20">
+        <v>0.9777090196491228</v>
+      </c>
+      <c r="Q20">
+        <v>0.9777090196491227</v>
+      </c>
+      <c r="R20">
+        <v>0.9937937135526316</v>
+      </c>
+      <c r="S20">
+        <v>0.9937937135526316</v>
+      </c>
+      <c r="T20">
+        <v>0.9957416184210525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9769767332372369</v>
+      </c>
+      <c r="D21">
+        <v>1.054016405292263</v>
+      </c>
+      <c r="E21">
+        <v>0.991888797444474</v>
+      </c>
+      <c r="F21">
+        <v>1.054016405292263</v>
+      </c>
+      <c r="G21">
+        <v>0.9875412591114598</v>
+      </c>
+      <c r="H21">
+        <v>0.9769767332372369</v>
+      </c>
+      <c r="I21">
+        <v>0.9817478304955882</v>
+      </c>
+      <c r="J21">
+        <v>1.025957156279264</v>
+      </c>
+      <c r="K21">
+        <v>0.9769767332372369</v>
+      </c>
+      <c r="L21">
+        <v>0.991888797444474</v>
+      </c>
+      <c r="M21">
+        <v>1.022952601368369</v>
+      </c>
+      <c r="N21">
+        <v>1.022952601368369</v>
+      </c>
+      <c r="O21">
+        <v>1.023954119672</v>
+      </c>
+      <c r="P21">
+        <v>1.007627311991325</v>
+      </c>
+      <c r="Q21">
+        <v>1.007627311991325</v>
+      </c>
+      <c r="R21">
+        <v>0.9999646673028026</v>
+      </c>
+      <c r="S21">
+        <v>0.9999646673028026</v>
+      </c>
+      <c r="T21">
+        <v>1.003021363643381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.001238606029603</v>
+      </c>
+      <c r="D22">
+        <v>1.009410418928234</v>
+      </c>
+      <c r="E22">
+        <v>0.9955250115729624</v>
+      </c>
+      <c r="F22">
+        <v>1.009410418928234</v>
+      </c>
+      <c r="G22">
+        <v>0.9971907808806376</v>
+      </c>
+      <c r="H22">
+        <v>1.001238606029603</v>
+      </c>
+      <c r="I22">
+        <v>0.9863238961760903</v>
+      </c>
+      <c r="J22">
+        <v>1.006864404052626</v>
+      </c>
+      <c r="K22">
+        <v>1.001238606029603</v>
+      </c>
+      <c r="L22">
+        <v>0.9955250115729624</v>
+      </c>
+      <c r="M22">
+        <v>1.002467715250598</v>
+      </c>
+      <c r="N22">
+        <v>1.002467715250598</v>
+      </c>
+      <c r="O22">
+        <v>1.003933278184607</v>
+      </c>
+      <c r="P22">
+        <v>1.002058012176933</v>
+      </c>
+      <c r="Q22">
+        <v>1.002058012176933</v>
+      </c>
+      <c r="R22">
+        <v>1.0018531606401</v>
+      </c>
+      <c r="S22">
+        <v>1.0018531606401</v>
+      </c>
+      <c r="T22">
+        <v>0.999425519606692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.008863424732987</v>
+      </c>
+      <c r="D23">
+        <v>1.009925210078327</v>
+      </c>
+      <c r="E23">
+        <v>0.9911358819209299</v>
+      </c>
+      <c r="F23">
+        <v>1.009925210078327</v>
+      </c>
+      <c r="G23">
+        <v>0.9963042578242463</v>
+      </c>
+      <c r="H23">
+        <v>1.008863424732987</v>
+      </c>
+      <c r="I23">
+        <v>0.9725733016785879</v>
+      </c>
+      <c r="J23">
+        <v>1.009792376101739</v>
+      </c>
+      <c r="K23">
+        <v>1.008863424732987</v>
+      </c>
+      <c r="L23">
+        <v>0.9911358819209299</v>
+      </c>
+      <c r="M23">
+        <v>1.000530545999629</v>
+      </c>
+      <c r="N23">
+        <v>1.000530545999629</v>
+      </c>
+      <c r="O23">
+        <v>1.003617822700332</v>
+      </c>
+      <c r="P23">
+        <v>1.003308172244082</v>
+      </c>
+      <c r="Q23">
+        <v>1.003308172244082</v>
+      </c>
+      <c r="R23">
+        <v>1.004696985366308</v>
+      </c>
+      <c r="S23">
+        <v>1.004696985366308</v>
+      </c>
+      <c r="T23">
+        <v>0.9980990753894696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9931793604043136</v>
+      </c>
+      <c r="D24">
+        <v>1.008751374021603</v>
+      </c>
+      <c r="E24">
+        <v>1.000484237578679</v>
+      </c>
+      <c r="F24">
+        <v>1.008751374021603</v>
+      </c>
+      <c r="G24">
+        <v>0.9983545414099195</v>
+      </c>
+      <c r="H24">
+        <v>0.9931793604043136</v>
+      </c>
+      <c r="I24">
+        <v>1.003188328247692</v>
+      </c>
+      <c r="J24">
+        <v>1.00283965906272</v>
+      </c>
+      <c r="K24">
+        <v>0.9931793604043136</v>
+      </c>
+      <c r="L24">
+        <v>1.000484237578679</v>
+      </c>
+      <c r="M24">
+        <v>1.004617805800141</v>
+      </c>
+      <c r="N24">
+        <v>1.004617805800141</v>
+      </c>
+      <c r="O24">
+        <v>1.004025090221001</v>
+      </c>
+      <c r="P24">
+        <v>1.000804990668198</v>
+      </c>
+      <c r="Q24">
+        <v>1.000804990668198</v>
+      </c>
+      <c r="R24">
+        <v>0.9988985831022272</v>
+      </c>
+      <c r="S24">
+        <v>0.9988985831022272</v>
+      </c>
+      <c r="T24">
+        <v>1.001132916787488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.047364354109684</v>
+      </c>
+      <c r="D25">
+        <v>0.8747959245522947</v>
+      </c>
+      <c r="E25">
+        <v>1.022425550827069</v>
+      </c>
+      <c r="F25">
+        <v>0.8747959245522947</v>
+      </c>
+      <c r="G25">
+        <v>1.02969633548721</v>
+      </c>
+      <c r="H25">
+        <v>1.047364354109684</v>
+      </c>
+      <c r="I25">
+        <v>1.055301198639628</v>
+      </c>
+      <c r="J25">
+        <v>0.9367693699942284</v>
+      </c>
+      <c r="K25">
+        <v>1.047364354109684</v>
+      </c>
+      <c r="L25">
+        <v>1.022425550827069</v>
+      </c>
+      <c r="M25">
+        <v>0.9486107376896818</v>
+      </c>
+      <c r="N25">
+        <v>0.9486107376896818</v>
+      </c>
+      <c r="O25">
+        <v>0.9446636151245307</v>
+      </c>
+      <c r="P25">
+        <v>0.9815286098296824</v>
+      </c>
+      <c r="Q25">
+        <v>0.9815286098296824</v>
+      </c>
+      <c r="R25">
+        <v>0.9979875458996827</v>
+      </c>
+      <c r="S25">
+        <v>0.9979875458996827</v>
+      </c>
+      <c r="T25">
+        <v>0.9943921222683524</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9995971686527529</v>
+      </c>
+      <c r="D26">
+        <v>0.9744482321464705</v>
+      </c>
+      <c r="E26">
+        <v>1.010100928837993</v>
+      </c>
+      <c r="F26">
+        <v>0.9744482321464705</v>
+      </c>
+      <c r="G26">
+        <v>1.00703860511837</v>
+      </c>
+      <c r="H26">
+        <v>0.9995971686527529</v>
+      </c>
+      <c r="I26">
+        <v>1.028629685562815</v>
+      </c>
+      <c r="J26">
+        <v>0.9836874260607898</v>
+      </c>
+      <c r="K26">
+        <v>0.9995971686527529</v>
+      </c>
+      <c r="L26">
+        <v>1.010100928837993</v>
+      </c>
+      <c r="M26">
+        <v>0.9922745804922315</v>
+      </c>
+      <c r="N26">
+        <v>0.9922745804922315</v>
+      </c>
+      <c r="O26">
+        <v>0.989412195681751</v>
+      </c>
+      <c r="P26">
+        <v>0.9947154432124053</v>
+      </c>
+      <c r="Q26">
+        <v>0.9947154432124053</v>
+      </c>
+      <c r="R26">
+        <v>0.9959358745724922</v>
+      </c>
+      <c r="S26">
+        <v>0.9959358745724922</v>
+      </c>
+      <c r="T26">
+        <v>1.000583674396532</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000176516234328</v>
+      </c>
+      <c r="D27">
+        <v>1.003203475135942</v>
+      </c>
+      <c r="E27">
+        <v>0.9987505309150687</v>
+      </c>
+      <c r="F27">
+        <v>1.003203475135942</v>
+      </c>
+      <c r="G27">
+        <v>0.9991662639282596</v>
+      </c>
+      <c r="H27">
+        <v>1.000176516234328</v>
+      </c>
+      <c r="I27">
+        <v>0.9968818840970353</v>
+      </c>
+      <c r="J27">
+        <v>1.001820189273396</v>
+      </c>
+      <c r="K27">
+        <v>1.000176516234328</v>
+      </c>
+      <c r="L27">
+        <v>0.9987505309150687</v>
+      </c>
+      <c r="M27">
+        <v>1.000977003025505</v>
+      </c>
+      <c r="N27">
+        <v>1.000977003025505</v>
+      </c>
+      <c r="O27">
+        <v>1.001258065108136</v>
+      </c>
+      <c r="P27">
+        <v>1.000710174095113</v>
+      </c>
+      <c r="Q27">
+        <v>1.000710174095113</v>
+      </c>
+      <c r="R27">
+        <v>1.000576759629916</v>
+      </c>
+      <c r="S27">
+        <v>1.000576759629916</v>
+      </c>
+      <c r="T27">
+        <v>0.9999998099306714</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.005531437473104</v>
+      </c>
+      <c r="D28">
+        <v>0.9777453606185292</v>
+      </c>
+      <c r="E28">
+        <v>1.005557045256048</v>
+      </c>
+      <c r="F28">
+        <v>0.9777453606185292</v>
+      </c>
+      <c r="G28">
+        <v>1.00554957469646</v>
+      </c>
+      <c r="H28">
+        <v>1.005531437473104</v>
+      </c>
+      <c r="I28">
+        <v>1.014697579790544</v>
+      </c>
+      <c r="J28">
+        <v>0.987824600251623</v>
+      </c>
+      <c r="K28">
+        <v>1.005531437473104</v>
+      </c>
+      <c r="L28">
+        <v>1.005557045256048</v>
+      </c>
+      <c r="M28">
+        <v>0.9916512029372886</v>
+      </c>
+      <c r="N28">
+        <v>0.9916512029372886</v>
+      </c>
+      <c r="O28">
+        <v>0.9903756687087334</v>
+      </c>
+      <c r="P28">
+        <v>0.9962779477825605</v>
+      </c>
+      <c r="Q28">
+        <v>0.9962779477825606</v>
+      </c>
+      <c r="R28">
+        <v>0.9985913202051966</v>
+      </c>
+      <c r="S28">
+        <v>0.9985913202051966</v>
+      </c>
+      <c r="T28">
+        <v>0.999484266347718</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.011332688965158</v>
+      </c>
+      <c r="D29">
+        <v>0.9669918184173559</v>
+      </c>
+      <c r="E29">
+        <v>1.006694052958819</v>
+      </c>
+      <c r="F29">
+        <v>0.9669918184173559</v>
+      </c>
+      <c r="G29">
+        <v>1.008046411351587</v>
+      </c>
+      <c r="H29">
+        <v>1.011332688965158</v>
+      </c>
+      <c r="I29">
+        <v>1.017756579200485</v>
+      </c>
+      <c r="J29">
+        <v>0.9824771460234177</v>
+      </c>
+      <c r="K29">
+        <v>1.011332688965158</v>
+      </c>
+      <c r="L29">
+        <v>1.006694052958819</v>
+      </c>
+      <c r="M29">
+        <v>0.9868429356880875</v>
+      </c>
+      <c r="N29">
+        <v>0.9868429356880875</v>
+      </c>
+      <c r="O29">
+        <v>0.9853876724665308</v>
+      </c>
+      <c r="P29">
+        <v>0.9950061867804445</v>
+      </c>
+      <c r="Q29">
+        <v>0.9950061867804445</v>
+      </c>
+      <c r="R29">
+        <v>0.9990878123266229</v>
+      </c>
+      <c r="S29">
+        <v>0.9990878123266229</v>
+      </c>
+      <c r="T29">
+        <v>0.9988831161528039</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.010103657102291</v>
+        <v>0.9937715049558455</v>
       </c>
       <c r="D4">
-        <v>0.9508264336347302</v>
+        <v>1.01149504799401</v>
       </c>
       <c r="E4">
-        <v>1.013534364947753</v>
+        <v>0.9989944904772445</v>
       </c>
       <c r="F4">
-        <v>0.9508264336347302</v>
+        <v>1.01149504799401</v>
       </c>
       <c r="G4">
-        <v>1.012534160784749</v>
+        <v>0.9974717549452864</v>
       </c>
       <c r="H4">
-        <v>1.010103657102291</v>
+        <v>0.9937715049558455</v>
       </c>
       <c r="I4">
-        <v>1.036870862718916</v>
+        <v>0.9983367095196115</v>
       </c>
       <c r="J4">
-        <v>0.9720901771001138</v>
+        <v>1.005100534748376</v>
       </c>
       <c r="K4">
-        <v>1.010103657102291</v>
+        <v>0.9937715049558455</v>
       </c>
       <c r="L4">
-        <v>1.013534364947753</v>
+        <v>0.9989944904772445</v>
       </c>
       <c r="M4">
-        <v>0.9821803992912417</v>
+        <v>1.005244769235627</v>
       </c>
       <c r="N4">
-        <v>0.9821803992912417</v>
+        <v>1.005244769235627</v>
       </c>
       <c r="O4">
-        <v>0.978816991894199</v>
+        <v>1.00519669107321</v>
       </c>
       <c r="P4">
-        <v>0.9914881518949249</v>
+        <v>1.001420347809033</v>
       </c>
       <c r="Q4">
-        <v>0.9914881518949249</v>
+        <v>1.001420347809033</v>
       </c>
       <c r="R4">
-        <v>0.9961420281967663</v>
+        <v>0.9995081370957364</v>
       </c>
       <c r="S4">
-        <v>0.9961420281967663</v>
+        <v>0.9995081370957364</v>
       </c>
       <c r="T4">
-        <v>0.9993266093814256</v>
+        <v>1.000861673773396</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9940785671253572</v>
+        <v>1.047361717666264</v>
       </c>
       <c r="D5">
-        <v>1.010250575799712</v>
+        <v>0.8447669294522822</v>
       </c>
       <c r="E5">
-        <v>0.9993137955691641</v>
+        <v>1.034140572683366</v>
       </c>
       <c r="F5">
-        <v>1.010250575799712</v>
+        <v>0.8447669294522822</v>
       </c>
       <c r="G5">
-        <v>0.9977874906916424</v>
+        <v>1.037995136663202</v>
       </c>
       <c r="H5">
-        <v>0.9940785671253572</v>
+        <v>1.047361717666264</v>
       </c>
       <c r="I5">
-        <v>0.9992210391570627</v>
+        <v>1.088956396915686</v>
       </c>
       <c r="J5">
-        <v>1.004396158321326</v>
+        <v>0.9174390696501432</v>
       </c>
       <c r="K5">
-        <v>0.9940785671253572</v>
+        <v>1.047361717666264</v>
       </c>
       <c r="L5">
-        <v>0.9993137955691641</v>
+        <v>1.034140572683366</v>
       </c>
       <c r="M5">
-        <v>1.004782185684438</v>
+        <v>0.9394537510678241</v>
       </c>
       <c r="N5">
-        <v>1.004782185684438</v>
+        <v>0.9394537510678241</v>
       </c>
       <c r="O5">
-        <v>1.004653509896734</v>
+        <v>0.9321155239285971</v>
       </c>
       <c r="P5">
-        <v>1.001214312831411</v>
+        <v>0.975423073267304</v>
       </c>
       <c r="Q5">
-        <v>1.001214312831411</v>
+        <v>0.975423073267304</v>
       </c>
       <c r="R5">
-        <v>0.9994303764048976</v>
+        <v>0.993407734367044</v>
       </c>
       <c r="S5">
-        <v>0.9994303764048976</v>
+        <v>0.993407734367044</v>
       </c>
       <c r="T5">
-        <v>1.000841271110711</v>
+        <v>0.9951099705051573</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9713547278545638</v>
+        <v>1.010103657102291</v>
       </c>
       <c r="D6">
-        <v>1.045488028316423</v>
+        <v>0.9508264336347302</v>
       </c>
       <c r="E6">
-        <v>0.9982712503967428</v>
+        <v>1.013534364947753</v>
       </c>
       <c r="F6">
-        <v>1.045488028316423</v>
+        <v>0.9508264336347302</v>
       </c>
       <c r="G6">
-        <v>0.9904238682190661</v>
+        <v>1.012534160784749</v>
       </c>
       <c r="H6">
-        <v>0.9713547278545638</v>
+        <v>1.010103657102291</v>
       </c>
       <c r="I6">
-        <v>1.000758686333211</v>
+        <v>1.036870862718916</v>
       </c>
       <c r="J6">
-        <v>1.01865385307358</v>
+        <v>0.9720901771001138</v>
       </c>
       <c r="K6">
-        <v>0.9713547278545638</v>
+        <v>1.010103657102291</v>
       </c>
       <c r="L6">
-        <v>0.9982712503967428</v>
+        <v>1.013534364947753</v>
       </c>
       <c r="M6">
-        <v>1.021879639356583</v>
+        <v>0.9821803992912417</v>
       </c>
       <c r="N6">
-        <v>1.021879639356583</v>
+        <v>0.9821803992912417</v>
       </c>
       <c r="O6">
-        <v>1.020804377262248</v>
+        <v>0.978816991894199</v>
       </c>
       <c r="P6">
-        <v>1.005038002189243</v>
+        <v>0.9914881518949249</v>
       </c>
       <c r="Q6">
-        <v>1.005038002189243</v>
+        <v>0.9914881518949249</v>
       </c>
       <c r="R6">
-        <v>0.9966171836055733</v>
+        <v>0.9961420281967663</v>
       </c>
       <c r="S6">
-        <v>0.9966171836055733</v>
+        <v>0.9961420281967663</v>
       </c>
       <c r="T6">
-        <v>1.004158402365598</v>
+        <v>0.9993266093814256</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000506394063281</v>
+        <v>0.9940785671253572</v>
       </c>
       <c r="D7">
-        <v>1.00004296892323</v>
+        <v>1.010250575799712</v>
       </c>
       <c r="E7">
-        <v>0.9997037562079225</v>
+        <v>0.9993137955691641</v>
       </c>
       <c r="F7">
-        <v>1.00004296892323</v>
+        <v>1.010250575799712</v>
       </c>
       <c r="G7">
-        <v>0.9999377619861038</v>
+        <v>0.9977874906916424</v>
       </c>
       <c r="H7">
-        <v>1.000506394063281</v>
+        <v>0.9940785671253572</v>
       </c>
       <c r="I7">
-        <v>0.9990663782400415</v>
+        <v>0.9992210391570627</v>
       </c>
       <c r="J7">
-        <v>1.00020421223388</v>
+        <v>1.004396158321326</v>
       </c>
       <c r="K7">
-        <v>1.000506394063281</v>
+        <v>0.9940785671253572</v>
       </c>
       <c r="L7">
-        <v>0.9997037562079225</v>
+        <v>0.9993137955691641</v>
       </c>
       <c r="M7">
-        <v>0.9998733625655761</v>
+        <v>1.004782185684438</v>
       </c>
       <c r="N7">
-        <v>0.9998733625655761</v>
+        <v>1.004782185684438</v>
       </c>
       <c r="O7">
-        <v>0.9999836457883443</v>
+        <v>1.004653509896734</v>
       </c>
       <c r="P7">
-        <v>1.000084373064811</v>
+        <v>1.001214312831411</v>
       </c>
       <c r="Q7">
-        <v>1.000084373064811</v>
+        <v>1.001214312831411</v>
       </c>
       <c r="R7">
-        <v>1.000189878314429</v>
+        <v>0.9994303764048976</v>
       </c>
       <c r="S7">
-        <v>1.000189878314429</v>
+        <v>0.9994303764048976</v>
       </c>
       <c r="T7">
-        <v>0.999910245275743</v>
+        <v>1.000841271110711</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000135369521953</v>
+        <v>0.9713547278545638</v>
       </c>
       <c r="D8">
-        <v>0.9999921960152732</v>
+        <v>1.045488028316423</v>
       </c>
       <c r="E8">
-        <v>0.999929304999181</v>
+        <v>0.9982712503967428</v>
       </c>
       <c r="F8">
-        <v>0.9999921960152732</v>
+        <v>1.045488028316423</v>
       </c>
       <c r="G8">
-        <v>0.9999893828456905</v>
+        <v>0.9904238682190661</v>
       </c>
       <c r="H8">
-        <v>1.000135369521953</v>
+        <v>0.9713547278545638</v>
       </c>
       <c r="I8">
-        <v>0.9997798254349175</v>
+        <v>1.000758686333211</v>
       </c>
       <c r="J8">
-        <v>1.000039147576424</v>
+        <v>1.01865385307358</v>
       </c>
       <c r="K8">
-        <v>1.000135369521953</v>
+        <v>0.9713547278545638</v>
       </c>
       <c r="L8">
-        <v>0.999929304999181</v>
+        <v>0.9982712503967428</v>
       </c>
       <c r="M8">
-        <v>0.9999607505072271</v>
+        <v>1.021879639356583</v>
       </c>
       <c r="N8">
-        <v>0.9999607505072271</v>
+        <v>1.021879639356583</v>
       </c>
       <c r="O8">
-        <v>0.9999868828636259</v>
+        <v>1.020804377262248</v>
       </c>
       <c r="P8">
-        <v>1.000018956845469</v>
+        <v>1.005038002189243</v>
       </c>
       <c r="Q8">
-        <v>1.000018956845469</v>
+        <v>1.005038002189243</v>
       </c>
       <c r="R8">
-        <v>1.00004806001459</v>
+        <v>0.9966171836055733</v>
       </c>
       <c r="S8">
-        <v>1.00004806001459</v>
+        <v>0.9966171836055733</v>
       </c>
       <c r="T8">
-        <v>0.9999775377322399</v>
+        <v>1.004158402365598</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000468916833757</v>
+        <v>1.000506394063281</v>
       </c>
       <c r="D9">
-        <v>1.001242213299469</v>
+        <v>1.00004296892323</v>
       </c>
       <c r="E9">
-        <v>0.999258616438067</v>
+        <v>0.9997037562079225</v>
       </c>
       <c r="F9">
-        <v>1.001242213299469</v>
+        <v>1.00004296892323</v>
       </c>
       <c r="G9">
-        <v>0.9996114753820033</v>
+        <v>0.9999377619861038</v>
       </c>
       <c r="H9">
-        <v>1.000468916833757</v>
+        <v>1.000506394063281</v>
       </c>
       <c r="I9">
-        <v>0.9978038094803073</v>
+        <v>0.9990663782400415</v>
       </c>
       <c r="J9">
-        <v>1.000956953818414</v>
+        <v>1.00020421223388</v>
       </c>
       <c r="K9">
-        <v>1.000468916833757</v>
+        <v>1.000506394063281</v>
       </c>
       <c r="L9">
-        <v>0.999258616438067</v>
+        <v>0.9997037562079225</v>
       </c>
       <c r="M9">
-        <v>1.000250414868768</v>
+        <v>0.9998733625655761</v>
       </c>
       <c r="N9">
-        <v>1.000250414868768</v>
+        <v>0.9998733625655761</v>
       </c>
       <c r="O9">
-        <v>1.000485927851984</v>
+        <v>0.9999836457883443</v>
       </c>
       <c r="P9">
-        <v>1.000323248857098</v>
+        <v>1.000084373064811</v>
       </c>
       <c r="Q9">
-        <v>1.000323248857098</v>
+        <v>1.000084373064811</v>
       </c>
       <c r="R9">
-        <v>1.000359665851262</v>
+        <v>1.000189878314429</v>
       </c>
       <c r="S9">
-        <v>1.000359665851262</v>
+        <v>1.000189878314429</v>
       </c>
       <c r="T9">
-        <v>0.9998903308753363</v>
+        <v>0.999910245275743</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9705960711371839</v>
+        <v>1.000135369521953</v>
       </c>
       <c r="D10">
-        <v>1.046382879756474</v>
+        <v>0.9999921960152732</v>
       </c>
       <c r="E10">
-        <v>0.9983476781588193</v>
+        <v>0.999929304999181</v>
       </c>
       <c r="F10">
-        <v>1.046382879756474</v>
+        <v>0.9999921960152732</v>
       </c>
       <c r="G10">
-        <v>0.990256831152961</v>
+        <v>0.9999893828456905</v>
       </c>
       <c r="H10">
-        <v>0.9705960711371839</v>
+        <v>1.000135369521953</v>
       </c>
       <c r="I10">
-        <v>1.001136733210692</v>
+        <v>0.9997798254349175</v>
       </c>
       <c r="J10">
-        <v>1.018944263907225</v>
+        <v>1.000039147576424</v>
       </c>
       <c r="K10">
-        <v>0.9705960711371839</v>
+        <v>1.000135369521953</v>
       </c>
       <c r="L10">
-        <v>0.9983476781588193</v>
+        <v>0.999929304999181</v>
       </c>
       <c r="M10">
-        <v>1.022365278957647</v>
+        <v>0.9999607505072271</v>
       </c>
       <c r="N10">
-        <v>1.022365278957647</v>
+        <v>0.9999607505072271</v>
       </c>
       <c r="O10">
-        <v>1.021224940607506</v>
+        <v>0.9999868828636259</v>
       </c>
       <c r="P10">
-        <v>1.005108876350826</v>
+        <v>1.000018956845469</v>
       </c>
       <c r="Q10">
-        <v>1.005108876350826</v>
+        <v>1.000018956845469</v>
       </c>
       <c r="R10">
-        <v>0.9964806750474151</v>
+        <v>1.00004806001459</v>
       </c>
       <c r="S10">
-        <v>0.9964806750474151</v>
+        <v>1.00004806001459</v>
       </c>
       <c r="T10">
-        <v>1.004277409553892</v>
+        <v>0.9999775377322399</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.009775343817654</v>
+        <v>1.000468916833757</v>
       </c>
       <c r="D11">
-        <v>0.9618273712277114</v>
+        <v>1.001242213299469</v>
       </c>
       <c r="E11">
-        <v>1.009412214583346</v>
+        <v>0.999258616438067</v>
       </c>
       <c r="F11">
-        <v>0.9618273712277114</v>
+        <v>1.001242213299469</v>
       </c>
       <c r="G11">
-        <v>1.009518085689864</v>
+        <v>0.9996114753820033</v>
       </c>
       <c r="H11">
-        <v>1.009775343817654</v>
+        <v>1.000468916833757</v>
       </c>
       <c r="I11">
-        <v>1.025020026825408</v>
+        <v>0.9978038094803073</v>
       </c>
       <c r="J11">
-        <v>0.9790947148940952</v>
+        <v>1.000956953818414</v>
       </c>
       <c r="K11">
-        <v>1.009775343817654</v>
+        <v>1.000468916833757</v>
       </c>
       <c r="L11">
-        <v>1.009412214583346</v>
+        <v>0.999258616438067</v>
       </c>
       <c r="M11">
-        <v>0.9856197929055287</v>
+        <v>1.000250414868768</v>
       </c>
       <c r="N11">
-        <v>0.9856197929055287</v>
+        <v>1.000250414868768</v>
       </c>
       <c r="O11">
-        <v>0.9834447669017176</v>
+        <v>1.000485927851984</v>
       </c>
       <c r="P11">
-        <v>0.9936716432095706</v>
+        <v>1.000323248857098</v>
       </c>
       <c r="Q11">
-        <v>0.9936716432095706</v>
+        <v>1.000323248857098</v>
       </c>
       <c r="R11">
-        <v>0.9976975683615916</v>
+        <v>1.000359665851262</v>
       </c>
       <c r="S11">
-        <v>0.9976975683615916</v>
+        <v>1.000359665851262</v>
       </c>
       <c r="T11">
-        <v>0.9991079595063465</v>
+        <v>0.9998903308753363</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9914664739473674</v>
+        <v>0.9705960711371839</v>
       </c>
       <c r="D12">
-        <v>1.012480610378946</v>
+        <v>1.046382879756474</v>
       </c>
       <c r="E12">
-        <v>0.9999017091263152</v>
+        <v>0.9983476781588193</v>
       </c>
       <c r="F12">
-        <v>1.012480610378946</v>
+        <v>1.046382879756474</v>
       </c>
       <c r="G12">
-        <v>0.997442457284209</v>
+        <v>0.990256831152961</v>
       </c>
       <c r="H12">
-        <v>0.9914664739473674</v>
+        <v>0.9705960711371839</v>
       </c>
       <c r="I12">
-        <v>1.001418846600003</v>
+        <v>1.001136733210692</v>
       </c>
       <c r="J12">
-        <v>1.004870622515787</v>
+        <v>1.018944263907225</v>
       </c>
       <c r="K12">
-        <v>0.9914664739473674</v>
+        <v>0.9705960711371839</v>
       </c>
       <c r="L12">
-        <v>0.9999017091263152</v>
+        <v>0.9983476781588193</v>
       </c>
       <c r="M12">
-        <v>1.006191159752631</v>
+        <v>1.022365278957647</v>
       </c>
       <c r="N12">
-        <v>1.006191159752631</v>
+        <v>1.022365278957647</v>
       </c>
       <c r="O12">
-        <v>1.005750980673683</v>
+        <v>1.021224940607506</v>
       </c>
       <c r="P12">
-        <v>1.001282931150876</v>
+        <v>1.005108876350826</v>
       </c>
       <c r="Q12">
-        <v>1.001282931150876</v>
+        <v>1.005108876350826</v>
       </c>
       <c r="R12">
-        <v>0.998828816849999</v>
+        <v>0.9964806750474151</v>
       </c>
       <c r="S12">
-        <v>0.998828816849999</v>
+        <v>0.9964806750474151</v>
       </c>
       <c r="T12">
-        <v>1.001263453308771</v>
+        <v>1.004277409553892</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.002180992822214</v>
+        <v>1.009775343817654</v>
       </c>
       <c r="D13">
-        <v>0.9931837710772867</v>
+        <v>0.9618273712277114</v>
       </c>
       <c r="E13">
-        <v>1.001449259960931</v>
+        <v>1.009412214583346</v>
       </c>
       <c r="F13">
-        <v>0.9931837710772867</v>
+        <v>0.9618273712277114</v>
       </c>
       <c r="G13">
-        <v>1.001662594289694</v>
+        <v>1.009518085689864</v>
       </c>
       <c r="H13">
-        <v>1.002180992822214</v>
+        <v>1.009775343817654</v>
       </c>
       <c r="I13">
-        <v>1.003777637113132</v>
+        <v>1.025020026825408</v>
       </c>
       <c r="J13">
-        <v>0.9963911339604469</v>
+        <v>0.9790947148940952</v>
       </c>
       <c r="K13">
-        <v>1.002180992822214</v>
+        <v>1.009775343817654</v>
       </c>
       <c r="L13">
-        <v>1.001449259960931</v>
+        <v>1.009412214583346</v>
       </c>
       <c r="M13">
-        <v>0.9973165155191088</v>
+        <v>0.9856197929055287</v>
       </c>
       <c r="N13">
-        <v>0.9973165155191088</v>
+        <v>0.9856197929055287</v>
       </c>
       <c r="O13">
-        <v>0.9970080549995548</v>
+        <v>0.9834447669017176</v>
       </c>
       <c r="P13">
-        <v>0.9989380079534772</v>
+        <v>0.9936716432095706</v>
       </c>
       <c r="Q13">
-        <v>0.9989380079534773</v>
+        <v>0.9936716432095706</v>
       </c>
       <c r="R13">
-        <v>0.9997487541706616</v>
+        <v>0.9976975683615916</v>
       </c>
       <c r="S13">
-        <v>0.9997487541706616</v>
+        <v>0.9976975683615916</v>
       </c>
       <c r="T13">
-        <v>0.9997742315372841</v>
+        <v>0.9991079595063465</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9483685200000012</v>
+        <v>0.9914664739473674</v>
       </c>
       <c r="D14">
-        <v>1.080651799999999</v>
+        <v>1.012480610378946</v>
       </c>
       <c r="E14">
-        <v>0.9974069900000013</v>
+        <v>0.9999017091263152</v>
       </c>
       <c r="F14">
-        <v>1.080651799999999</v>
+        <v>1.012480610378946</v>
       </c>
       <c r="G14">
-        <v>0.9831100600000009</v>
+        <v>0.997442457284209</v>
       </c>
       <c r="H14">
-        <v>0.9483685200000012</v>
+        <v>0.9914664739473674</v>
       </c>
       <c r="I14">
-        <v>1.002875600000001</v>
+        <v>1.001418846600003</v>
       </c>
       <c r="J14">
-        <v>1.032757900000001</v>
+        <v>1.004870622515787</v>
       </c>
       <c r="K14">
-        <v>0.9483685200000012</v>
+        <v>0.9914664739473674</v>
       </c>
       <c r="L14">
-        <v>0.9974069900000013</v>
+        <v>0.9999017091263152</v>
       </c>
       <c r="M14">
-        <v>1.039029395</v>
+        <v>1.006191159752631</v>
       </c>
       <c r="N14">
-        <v>1.039029395</v>
+        <v>1.006191159752631</v>
       </c>
       <c r="O14">
-        <v>1.036938896666667</v>
+        <v>1.005750980673683</v>
       </c>
       <c r="P14">
-        <v>1.008809103333334</v>
+        <v>1.001282931150876</v>
       </c>
       <c r="Q14">
-        <v>1.008809103333334</v>
+        <v>1.001282931150876</v>
       </c>
       <c r="R14">
-        <v>0.9936989575000006</v>
+        <v>0.998828816849999</v>
       </c>
       <c r="S14">
-        <v>0.9936989575000006</v>
+        <v>0.998828816849999</v>
       </c>
       <c r="T14">
-        <v>1.007528478333334</v>
+        <v>1.001263453308771</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.1248129</v>
+        <v>1.002180992822214</v>
       </c>
       <c r="D15">
-        <v>0.7563714999999999</v>
+        <v>0.9931837710772867</v>
       </c>
       <c r="E15">
-        <v>1.0262848</v>
+        <v>1.001449259960931</v>
       </c>
       <c r="F15">
-        <v>0.7563714999999999</v>
+        <v>0.9931837710772867</v>
       </c>
       <c r="G15">
-        <v>1.0550102</v>
+        <v>1.001662594289694</v>
       </c>
       <c r="H15">
-        <v>1.1248129</v>
+        <v>1.002180992822214</v>
       </c>
       <c r="I15">
-        <v>1.055856</v>
+        <v>1.003777637113132</v>
       </c>
       <c r="J15">
-        <v>0.88627042</v>
+        <v>0.9963911339604469</v>
       </c>
       <c r="K15">
-        <v>1.1248129</v>
+        <v>1.002180992822214</v>
       </c>
       <c r="L15">
-        <v>1.0262848</v>
+        <v>1.001449259960931</v>
       </c>
       <c r="M15">
-        <v>0.8913281499999999</v>
+        <v>0.9973165155191088</v>
       </c>
       <c r="N15">
-        <v>0.8913281499999999</v>
+        <v>0.9973165155191088</v>
       </c>
       <c r="O15">
-        <v>0.88964224</v>
+        <v>0.9970080549995548</v>
       </c>
       <c r="P15">
-        <v>0.9691563999999998</v>
+        <v>0.9989380079534772</v>
       </c>
       <c r="Q15">
-        <v>0.9691564</v>
+        <v>0.9989380079534773</v>
       </c>
       <c r="R15">
-        <v>1.008070525</v>
+        <v>0.9997487541706616</v>
       </c>
       <c r="S15">
-        <v>1.008070525</v>
+        <v>0.9997487541706616</v>
       </c>
       <c r="T15">
-        <v>0.9841009700000001</v>
+        <v>0.9997742315372841</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0695814</v>
+        <v>0.9483685200000012</v>
       </c>
       <c r="D16">
-        <v>0.6445417</v>
+        <v>1.080651799999999</v>
       </c>
       <c r="E16">
-        <v>1.0998721</v>
+        <v>0.9974069900000013</v>
       </c>
       <c r="F16">
-        <v>0.6445417</v>
+        <v>1.080651799999999</v>
       </c>
       <c r="G16">
-        <v>1.091041</v>
+        <v>0.9831100600000009</v>
       </c>
       <c r="H16">
-        <v>1.0695814</v>
+        <v>0.9483685200000012</v>
       </c>
       <c r="I16">
-        <v>1.2736103</v>
+        <v>1.002875600000001</v>
       </c>
       <c r="J16">
-        <v>0.79663964</v>
+        <v>1.032757900000001</v>
       </c>
       <c r="K16">
-        <v>1.0695814</v>
+        <v>0.9483685200000012</v>
       </c>
       <c r="L16">
-        <v>1.0998721</v>
+        <v>0.9974069900000013</v>
       </c>
       <c r="M16">
-        <v>0.8722069</v>
+        <v>1.039029395</v>
       </c>
       <c r="N16">
-        <v>0.8722069</v>
+        <v>1.039029395</v>
       </c>
       <c r="O16">
-        <v>0.8470178133333333</v>
+        <v>1.036938896666667</v>
       </c>
       <c r="P16">
-        <v>0.9379984</v>
+        <v>1.008809103333334</v>
       </c>
       <c r="Q16">
-        <v>0.9379984</v>
+        <v>1.008809103333334</v>
       </c>
       <c r="R16">
-        <v>0.9708941499999999</v>
+        <v>0.9936989575000006</v>
       </c>
       <c r="S16">
-        <v>0.9708941499999999</v>
+        <v>0.9936989575000006</v>
       </c>
       <c r="T16">
-        <v>0.9958810233333333</v>
+        <v>1.007528478333334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0221319</v>
+        <v>1.1248129</v>
       </c>
       <c r="D17">
-        <v>0.86741896</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="E17">
-        <v>1.0395623</v>
+        <v>1.0262848</v>
       </c>
       <c r="F17">
-        <v>0.86741896</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="G17">
-        <v>1.0344806</v>
+        <v>1.0550102</v>
       </c>
       <c r="H17">
-        <v>1.0221319</v>
+        <v>1.1248129</v>
       </c>
       <c r="I17">
-        <v>1.1103551</v>
+        <v>1.055856</v>
       </c>
       <c r="J17">
-        <v>0.9221870100000001</v>
+        <v>0.88627042</v>
       </c>
       <c r="K17">
-        <v>1.0221319</v>
+        <v>1.1248129</v>
       </c>
       <c r="L17">
-        <v>1.0395623</v>
+        <v>1.0262848</v>
       </c>
       <c r="M17">
-        <v>0.95349063</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N17">
-        <v>0.95349063</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O17">
-        <v>0.9430560900000001</v>
+        <v>0.88964224</v>
       </c>
       <c r="P17">
-        <v>0.9763710533333333</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q17">
-        <v>0.9763710533333333</v>
+        <v>0.9691564</v>
       </c>
       <c r="R17">
-        <v>0.9878112649999999</v>
+        <v>1.008070525</v>
       </c>
       <c r="S17">
-        <v>0.9878112649999999</v>
+        <v>1.008070525</v>
       </c>
       <c r="T17">
-        <v>0.9993559783333333</v>
+        <v>0.9841009700000001</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.00800391479452</v>
+        <v>1.0695814</v>
       </c>
       <c r="D18">
-        <v>1.010828509315069</v>
+        <v>0.6445417</v>
       </c>
       <c r="E18">
-        <v>0.9913779386301371</v>
+        <v>1.0998721</v>
       </c>
       <c r="F18">
-        <v>1.010828509315069</v>
+        <v>0.6445417</v>
       </c>
       <c r="G18">
-        <v>0.9962251632876706</v>
+        <v>1.091041</v>
       </c>
       <c r="H18">
-        <v>1.00800391479452</v>
+        <v>1.0695814</v>
       </c>
       <c r="I18">
-        <v>0.9740243002739729</v>
+        <v>1.2736103</v>
       </c>
       <c r="J18">
-        <v>1.009700781095891</v>
+        <v>0.79663964</v>
       </c>
       <c r="K18">
-        <v>1.00800391479452</v>
+        <v>1.0695814</v>
       </c>
       <c r="L18">
-        <v>0.9913779386301371</v>
+        <v>1.0998721</v>
       </c>
       <c r="M18">
-        <v>1.001103223972603</v>
+        <v>0.8722069</v>
       </c>
       <c r="N18">
-        <v>1.001103223972603</v>
+        <v>0.8722069</v>
       </c>
       <c r="O18">
-        <v>1.003969076347032</v>
+        <v>0.8470178133333333</v>
       </c>
       <c r="P18">
-        <v>1.003403454246575</v>
+        <v>0.9379984</v>
       </c>
       <c r="Q18">
-        <v>1.003403454246575</v>
+        <v>0.9379984</v>
       </c>
       <c r="R18">
-        <v>1.004553569383562</v>
+        <v>0.9708941499999999</v>
       </c>
       <c r="S18">
-        <v>1.004553569383562</v>
+        <v>0.9708941499999999</v>
       </c>
       <c r="T18">
-        <v>0.9983601012328767</v>
+        <v>0.9958810233333333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9972955105263158</v>
+        <v>1.0221319</v>
       </c>
       <c r="D19">
-        <v>0.9350788800000001</v>
+        <v>0.86741896</v>
       </c>
       <c r="E19">
-        <v>1.026987847368421</v>
+        <v>1.0395623</v>
       </c>
       <c r="F19">
-        <v>0.9350788800000001</v>
+        <v>0.86741896</v>
       </c>
       <c r="G19">
-        <v>1.018331195263158</v>
+        <v>1.0344806</v>
       </c>
       <c r="H19">
-        <v>0.9972955105263158</v>
+        <v>1.0221319</v>
       </c>
       <c r="I19">
-        <v>1.078848558947368</v>
+        <v>1.1103551</v>
       </c>
       <c r="J19">
-        <v>0.9567358163157894</v>
+        <v>0.9221870100000001</v>
       </c>
       <c r="K19">
-        <v>0.9972955105263158</v>
+        <v>1.0221319</v>
       </c>
       <c r="L19">
-        <v>1.026987847368421</v>
+        <v>1.0395623</v>
       </c>
       <c r="M19">
-        <v>0.9810333636842107</v>
+        <v>0.95349063</v>
       </c>
       <c r="N19">
-        <v>0.9810333636842107</v>
+        <v>0.95349063</v>
       </c>
       <c r="O19">
-        <v>0.9729341812280703</v>
+        <v>0.9430560900000001</v>
       </c>
       <c r="P19">
-        <v>0.9864540792982458</v>
+        <v>0.9763710533333333</v>
       </c>
       <c r="Q19">
-        <v>0.9864540792982458</v>
+        <v>0.9763710533333333</v>
       </c>
       <c r="R19">
-        <v>0.9891644371052633</v>
+        <v>0.9878112649999999</v>
       </c>
       <c r="S19">
-        <v>0.9891644371052633</v>
+        <v>0.9878112649999999</v>
       </c>
       <c r="T19">
-        <v>1.002212968070175</v>
+        <v>0.9993559783333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.042047795263158</v>
+        <v>1.00800391479452</v>
       </c>
       <c r="D20">
-        <v>0.8598247699999998</v>
+        <v>1.010828509315069</v>
       </c>
       <c r="E20">
-        <v>1.031254493684211</v>
+        <v>0.9913779386301371</v>
       </c>
       <c r="F20">
-        <v>0.8598247699999998</v>
+        <v>1.010828509315069</v>
       </c>
       <c r="G20">
-        <v>1.034401231578947</v>
+        <v>0.9962251632876706</v>
       </c>
       <c r="H20">
-        <v>1.042047795263158</v>
+        <v>1.00800391479452</v>
       </c>
       <c r="I20">
-        <v>1.08181299</v>
+        <v>0.9740243002739729</v>
       </c>
       <c r="J20">
-        <v>0.9251084300000001</v>
+        <v>1.009700781095891</v>
       </c>
       <c r="K20">
-        <v>1.042047795263158</v>
+        <v>1.00800391479452</v>
       </c>
       <c r="L20">
-        <v>1.031254493684211</v>
+        <v>0.9913779386301371</v>
       </c>
       <c r="M20">
-        <v>0.9455396318421052</v>
+        <v>1.001103223972603</v>
       </c>
       <c r="N20">
-        <v>0.9455396318421052</v>
+        <v>1.001103223972603</v>
       </c>
       <c r="O20">
-        <v>0.9387292312280703</v>
+        <v>1.003969076347032</v>
       </c>
       <c r="P20">
-        <v>0.9777090196491228</v>
+        <v>1.003403454246575</v>
       </c>
       <c r="Q20">
-        <v>0.9777090196491227</v>
+        <v>1.003403454246575</v>
       </c>
       <c r="R20">
-        <v>0.9937937135526316</v>
+        <v>1.004553569383562</v>
       </c>
       <c r="S20">
-        <v>0.9937937135526316</v>
+        <v>1.004553569383562</v>
       </c>
       <c r="T20">
-        <v>0.9957416184210525</v>
+        <v>0.9983601012328767</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9769767332372369</v>
+        <v>0.9972955105263158</v>
       </c>
       <c r="D21">
-        <v>1.054016405292263</v>
+        <v>0.9350788800000001</v>
       </c>
       <c r="E21">
-        <v>0.991888797444474</v>
+        <v>1.026987847368421</v>
       </c>
       <c r="F21">
-        <v>1.054016405292263</v>
+        <v>0.9350788800000001</v>
       </c>
       <c r="G21">
-        <v>0.9875412591114598</v>
+        <v>1.018331195263158</v>
       </c>
       <c r="H21">
-        <v>0.9769767332372369</v>
+        <v>0.9972955105263158</v>
       </c>
       <c r="I21">
-        <v>0.9817478304955882</v>
+        <v>1.078848558947368</v>
       </c>
       <c r="J21">
-        <v>1.025957156279264</v>
+        <v>0.9567358163157894</v>
       </c>
       <c r="K21">
-        <v>0.9769767332372369</v>
+        <v>0.9972955105263158</v>
       </c>
       <c r="L21">
-        <v>0.991888797444474</v>
+        <v>1.026987847368421</v>
       </c>
       <c r="M21">
-        <v>1.022952601368369</v>
+        <v>0.9810333636842107</v>
       </c>
       <c r="N21">
-        <v>1.022952601368369</v>
+        <v>0.9810333636842107</v>
       </c>
       <c r="O21">
-        <v>1.023954119672</v>
+        <v>0.9729341812280703</v>
       </c>
       <c r="P21">
-        <v>1.007627311991325</v>
+        <v>0.9864540792982458</v>
       </c>
       <c r="Q21">
-        <v>1.007627311991325</v>
+        <v>0.9864540792982458</v>
       </c>
       <c r="R21">
-        <v>0.9999646673028026</v>
+        <v>0.9891644371052633</v>
       </c>
       <c r="S21">
-        <v>0.9999646673028026</v>
+        <v>0.9891644371052633</v>
       </c>
       <c r="T21">
-        <v>1.003021363643381</v>
+        <v>1.002212968070175</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.001238606029603</v>
+        <v>1.042047795263158</v>
       </c>
       <c r="D22">
-        <v>1.009410418928234</v>
+        <v>0.8598247699999998</v>
       </c>
       <c r="E22">
-        <v>0.9955250115729624</v>
+        <v>1.031254493684211</v>
       </c>
       <c r="F22">
-        <v>1.009410418928234</v>
+        <v>0.8598247699999998</v>
       </c>
       <c r="G22">
-        <v>0.9971907808806376</v>
+        <v>1.034401231578947</v>
       </c>
       <c r="H22">
-        <v>1.001238606029603</v>
+        <v>1.042047795263158</v>
       </c>
       <c r="I22">
-        <v>0.9863238961760903</v>
+        <v>1.08181299</v>
       </c>
       <c r="J22">
-        <v>1.006864404052626</v>
+        <v>0.9251084300000001</v>
       </c>
       <c r="K22">
-        <v>1.001238606029603</v>
+        <v>1.042047795263158</v>
       </c>
       <c r="L22">
-        <v>0.9955250115729624</v>
+        <v>1.031254493684211</v>
       </c>
       <c r="M22">
-        <v>1.002467715250598</v>
+        <v>0.9455396318421052</v>
       </c>
       <c r="N22">
-        <v>1.002467715250598</v>
+        <v>0.9455396318421052</v>
       </c>
       <c r="O22">
-        <v>1.003933278184607</v>
+        <v>0.9387292312280703</v>
       </c>
       <c r="P22">
-        <v>1.002058012176933</v>
+        <v>0.9777090196491228</v>
       </c>
       <c r="Q22">
-        <v>1.002058012176933</v>
+        <v>0.9777090196491227</v>
       </c>
       <c r="R22">
-        <v>1.0018531606401</v>
+        <v>0.9937937135526316</v>
       </c>
       <c r="S22">
-        <v>1.0018531606401</v>
+        <v>0.9937937135526316</v>
       </c>
       <c r="T22">
-        <v>0.999425519606692</v>
+        <v>0.9957416184210525</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.008863424732987</v>
+        <v>0.9769767332372369</v>
       </c>
       <c r="D23">
-        <v>1.009925210078327</v>
+        <v>1.054016405292263</v>
       </c>
       <c r="E23">
-        <v>0.9911358819209299</v>
+        <v>0.991888797444474</v>
       </c>
       <c r="F23">
-        <v>1.009925210078327</v>
+        <v>1.054016405292263</v>
       </c>
       <c r="G23">
-        <v>0.9963042578242463</v>
+        <v>0.9875412591114598</v>
       </c>
       <c r="H23">
-        <v>1.008863424732987</v>
+        <v>0.9769767332372369</v>
       </c>
       <c r="I23">
-        <v>0.9725733016785879</v>
+        <v>0.9817478304955882</v>
       </c>
       <c r="J23">
-        <v>1.009792376101739</v>
+        <v>1.025957156279264</v>
       </c>
       <c r="K23">
-        <v>1.008863424732987</v>
+        <v>0.9769767332372369</v>
       </c>
       <c r="L23">
-        <v>0.9911358819209299</v>
+        <v>0.991888797444474</v>
       </c>
       <c r="M23">
-        <v>1.000530545999629</v>
+        <v>1.022952601368369</v>
       </c>
       <c r="N23">
-        <v>1.000530545999629</v>
+        <v>1.022952601368369</v>
       </c>
       <c r="O23">
-        <v>1.003617822700332</v>
+        <v>1.023954119672</v>
       </c>
       <c r="P23">
-        <v>1.003308172244082</v>
+        <v>1.007627311991325</v>
       </c>
       <c r="Q23">
-        <v>1.003308172244082</v>
+        <v>1.007627311991325</v>
       </c>
       <c r="R23">
-        <v>1.004696985366308</v>
+        <v>0.9999646673028026</v>
       </c>
       <c r="S23">
-        <v>1.004696985366308</v>
+        <v>0.9999646673028026</v>
       </c>
       <c r="T23">
-        <v>0.9980990753894696</v>
+        <v>1.003021363643381</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9931793604043136</v>
+        <v>1.001238606029603</v>
       </c>
       <c r="D24">
-        <v>1.008751374021603</v>
+        <v>1.009410418928234</v>
       </c>
       <c r="E24">
-        <v>1.000484237578679</v>
+        <v>0.9955250115729624</v>
       </c>
       <c r="F24">
-        <v>1.008751374021603</v>
+        <v>1.009410418928234</v>
       </c>
       <c r="G24">
-        <v>0.9983545414099195</v>
+        <v>0.9971907808806376</v>
       </c>
       <c r="H24">
-        <v>0.9931793604043136</v>
+        <v>1.001238606029603</v>
       </c>
       <c r="I24">
-        <v>1.003188328247692</v>
+        <v>0.9863238961760903</v>
       </c>
       <c r="J24">
-        <v>1.00283965906272</v>
+        <v>1.006864404052626</v>
       </c>
       <c r="K24">
-        <v>0.9931793604043136</v>
+        <v>1.001238606029603</v>
       </c>
       <c r="L24">
-        <v>1.000484237578679</v>
+        <v>0.9955250115729624</v>
       </c>
       <c r="M24">
-        <v>1.004617805800141</v>
+        <v>1.002467715250598</v>
       </c>
       <c r="N24">
-        <v>1.004617805800141</v>
+        <v>1.002467715250598</v>
       </c>
       <c r="O24">
-        <v>1.004025090221001</v>
+        <v>1.003933278184607</v>
       </c>
       <c r="P24">
-        <v>1.000804990668198</v>
+        <v>1.002058012176933</v>
       </c>
       <c r="Q24">
-        <v>1.000804990668198</v>
+        <v>1.002058012176933</v>
       </c>
       <c r="R24">
-        <v>0.9988985831022272</v>
+        <v>1.0018531606401</v>
       </c>
       <c r="S24">
-        <v>0.9988985831022272</v>
+        <v>1.0018531606401</v>
       </c>
       <c r="T24">
-        <v>1.001132916787488</v>
+        <v>0.999425519606692</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.047364354109684</v>
+        <v>1.008863424732987</v>
       </c>
       <c r="D25">
-        <v>0.8747959245522947</v>
+        <v>1.009925210078327</v>
       </c>
       <c r="E25">
-        <v>1.022425550827069</v>
+        <v>0.9911358819209299</v>
       </c>
       <c r="F25">
-        <v>0.8747959245522947</v>
+        <v>1.009925210078327</v>
       </c>
       <c r="G25">
-        <v>1.02969633548721</v>
+        <v>0.9963042578242463</v>
       </c>
       <c r="H25">
-        <v>1.047364354109684</v>
+        <v>1.008863424732987</v>
       </c>
       <c r="I25">
-        <v>1.055301198639628</v>
+        <v>0.9725733016785879</v>
       </c>
       <c r="J25">
-        <v>0.9367693699942284</v>
+        <v>1.009792376101739</v>
       </c>
       <c r="K25">
-        <v>1.047364354109684</v>
+        <v>1.008863424732987</v>
       </c>
       <c r="L25">
-        <v>1.022425550827069</v>
+        <v>0.9911358819209299</v>
       </c>
       <c r="M25">
-        <v>0.9486107376896818</v>
+        <v>1.000530545999629</v>
       </c>
       <c r="N25">
-        <v>0.9486107376896818</v>
+        <v>1.000530545999629</v>
       </c>
       <c r="O25">
-        <v>0.9446636151245307</v>
+        <v>1.003617822700332</v>
       </c>
       <c r="P25">
-        <v>0.9815286098296824</v>
+        <v>1.003308172244082</v>
       </c>
       <c r="Q25">
-        <v>0.9815286098296824</v>
+        <v>1.003308172244082</v>
       </c>
       <c r="R25">
-        <v>0.9979875458996827</v>
+        <v>1.004696985366308</v>
       </c>
       <c r="S25">
-        <v>0.9979875458996827</v>
+        <v>1.004696985366308</v>
       </c>
       <c r="T25">
-        <v>0.9943921222683524</v>
+        <v>0.9980990753894696</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9995971686527529</v>
+        <v>0.9931793604043136</v>
       </c>
       <c r="D26">
-        <v>0.9744482321464705</v>
+        <v>1.008751374021603</v>
       </c>
       <c r="E26">
-        <v>1.010100928837993</v>
+        <v>1.000484237578679</v>
       </c>
       <c r="F26">
-        <v>0.9744482321464705</v>
+        <v>1.008751374021603</v>
       </c>
       <c r="G26">
-        <v>1.00703860511837</v>
+        <v>0.9983545414099195</v>
       </c>
       <c r="H26">
-        <v>0.9995971686527529</v>
+        <v>0.9931793604043136</v>
       </c>
       <c r="I26">
-        <v>1.028629685562815</v>
+        <v>1.003188328247692</v>
       </c>
       <c r="J26">
-        <v>0.9836874260607898</v>
+        <v>1.00283965906272</v>
       </c>
       <c r="K26">
-        <v>0.9995971686527529</v>
+        <v>0.9931793604043136</v>
       </c>
       <c r="L26">
-        <v>1.010100928837993</v>
+        <v>1.000484237578679</v>
       </c>
       <c r="M26">
-        <v>0.9922745804922315</v>
+        <v>1.004617805800141</v>
       </c>
       <c r="N26">
-        <v>0.9922745804922315</v>
+        <v>1.004617805800141</v>
       </c>
       <c r="O26">
-        <v>0.989412195681751</v>
+        <v>1.004025090221001</v>
       </c>
       <c r="P26">
-        <v>0.9947154432124053</v>
+        <v>1.000804990668198</v>
       </c>
       <c r="Q26">
-        <v>0.9947154432124053</v>
+        <v>1.000804990668198</v>
       </c>
       <c r="R26">
-        <v>0.9959358745724922</v>
+        <v>0.9988985831022272</v>
       </c>
       <c r="S26">
-        <v>0.9959358745724922</v>
+        <v>0.9988985831022272</v>
       </c>
       <c r="T26">
-        <v>1.000583674396532</v>
+        <v>1.001132916787488</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.000176516234328</v>
+        <v>1.047364354109684</v>
       </c>
       <c r="D27">
-        <v>1.003203475135942</v>
+        <v>0.8747959245522947</v>
       </c>
       <c r="E27">
-        <v>0.9987505309150687</v>
+        <v>1.022425550827069</v>
       </c>
       <c r="F27">
-        <v>1.003203475135942</v>
+        <v>0.8747959245522947</v>
       </c>
       <c r="G27">
-        <v>0.9991662639282596</v>
+        <v>1.02969633548721</v>
       </c>
       <c r="H27">
-        <v>1.000176516234328</v>
+        <v>1.047364354109684</v>
       </c>
       <c r="I27">
-        <v>0.9968818840970353</v>
+        <v>1.055301198639628</v>
       </c>
       <c r="J27">
-        <v>1.001820189273396</v>
+        <v>0.9367693699942284</v>
       </c>
       <c r="K27">
-        <v>1.000176516234328</v>
+        <v>1.047364354109684</v>
       </c>
       <c r="L27">
-        <v>0.9987505309150687</v>
+        <v>1.022425550827069</v>
       </c>
       <c r="M27">
-        <v>1.000977003025505</v>
+        <v>0.9486107376896818</v>
       </c>
       <c r="N27">
-        <v>1.000977003025505</v>
+        <v>0.9486107376896818</v>
       </c>
       <c r="O27">
-        <v>1.001258065108136</v>
+        <v>0.9446636151245307</v>
       </c>
       <c r="P27">
-        <v>1.000710174095113</v>
+        <v>0.9815286098296824</v>
       </c>
       <c r="Q27">
-        <v>1.000710174095113</v>
+        <v>0.9815286098296824</v>
       </c>
       <c r="R27">
-        <v>1.000576759629916</v>
+        <v>0.9979875458996827</v>
       </c>
       <c r="S27">
-        <v>1.000576759629916</v>
+        <v>0.9979875458996827</v>
       </c>
       <c r="T27">
-        <v>0.9999998099306714</v>
+        <v>0.9943921222683524</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.005531437473104</v>
+        <v>0.9995971686527529</v>
       </c>
       <c r="D28">
-        <v>0.9777453606185292</v>
+        <v>0.9744482321464705</v>
       </c>
       <c r="E28">
-        <v>1.005557045256048</v>
+        <v>1.010100928837993</v>
       </c>
       <c r="F28">
-        <v>0.9777453606185292</v>
+        <v>0.9744482321464705</v>
       </c>
       <c r="G28">
-        <v>1.00554957469646</v>
+        <v>1.00703860511837</v>
       </c>
       <c r="H28">
-        <v>1.005531437473104</v>
+        <v>0.9995971686527529</v>
       </c>
       <c r="I28">
-        <v>1.014697579790544</v>
+        <v>1.028629685562815</v>
       </c>
       <c r="J28">
-        <v>0.987824600251623</v>
+        <v>0.9836874260607898</v>
       </c>
       <c r="K28">
-        <v>1.005531437473104</v>
+        <v>0.9995971686527529</v>
       </c>
       <c r="L28">
-        <v>1.005557045256048</v>
+        <v>1.010100928837993</v>
       </c>
       <c r="M28">
-        <v>0.9916512029372886</v>
+        <v>0.9922745804922315</v>
       </c>
       <c r="N28">
-        <v>0.9916512029372886</v>
+        <v>0.9922745804922315</v>
       </c>
       <c r="O28">
-        <v>0.9903756687087334</v>
+        <v>0.989412195681751</v>
       </c>
       <c r="P28">
-        <v>0.9962779477825605</v>
+        <v>0.9947154432124053</v>
       </c>
       <c r="Q28">
-        <v>0.9962779477825606</v>
+        <v>0.9947154432124053</v>
       </c>
       <c r="R28">
-        <v>0.9985913202051966</v>
+        <v>0.9959358745724922</v>
       </c>
       <c r="S28">
-        <v>0.9985913202051966</v>
+        <v>0.9959358745724922</v>
       </c>
       <c r="T28">
-        <v>0.999484266347718</v>
+        <v>1.000583674396532</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.000176516234328</v>
+      </c>
+      <c r="D29">
+        <v>1.003203475135942</v>
+      </c>
+      <c r="E29">
+        <v>0.9987505309150687</v>
+      </c>
+      <c r="F29">
+        <v>1.003203475135942</v>
+      </c>
+      <c r="G29">
+        <v>0.9991662639282596</v>
+      </c>
+      <c r="H29">
+        <v>1.000176516234328</v>
+      </c>
+      <c r="I29">
+        <v>0.9968818840970353</v>
+      </c>
+      <c r="J29">
+        <v>1.001820189273396</v>
+      </c>
+      <c r="K29">
+        <v>1.000176516234328</v>
+      </c>
+      <c r="L29">
+        <v>0.9987505309150687</v>
+      </c>
+      <c r="M29">
+        <v>1.000977003025505</v>
+      </c>
+      <c r="N29">
+        <v>1.000977003025505</v>
+      </c>
+      <c r="O29">
+        <v>1.001258065108136</v>
+      </c>
+      <c r="P29">
+        <v>1.000710174095113</v>
+      </c>
+      <c r="Q29">
+        <v>1.000710174095113</v>
+      </c>
+      <c r="R29">
+        <v>1.000576759629916</v>
+      </c>
+      <c r="S29">
+        <v>1.000576759629916</v>
+      </c>
+      <c r="T29">
+        <v>0.9999998099306714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.005531437473104</v>
+      </c>
+      <c r="D30">
+        <v>0.9777453606185292</v>
+      </c>
+      <c r="E30">
+        <v>1.005557045256048</v>
+      </c>
+      <c r="F30">
+        <v>0.9777453606185292</v>
+      </c>
+      <c r="G30">
+        <v>1.00554957469646</v>
+      </c>
+      <c r="H30">
+        <v>1.005531437473104</v>
+      </c>
+      <c r="I30">
+        <v>1.014697579790544</v>
+      </c>
+      <c r="J30">
+        <v>0.987824600251623</v>
+      </c>
+      <c r="K30">
+        <v>1.005531437473104</v>
+      </c>
+      <c r="L30">
+        <v>1.005557045256048</v>
+      </c>
+      <c r="M30">
+        <v>0.9916512029372886</v>
+      </c>
+      <c r="N30">
+        <v>0.9916512029372886</v>
+      </c>
+      <c r="O30">
+        <v>0.9903756687087334</v>
+      </c>
+      <c r="P30">
+        <v>0.9962779477825605</v>
+      </c>
+      <c r="Q30">
+        <v>0.9962779477825606</v>
+      </c>
+      <c r="R30">
+        <v>0.9985913202051966</v>
+      </c>
+      <c r="S30">
+        <v>0.9985913202051966</v>
+      </c>
+      <c r="T30">
+        <v>0.999484266347718</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.011332688965158</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9669918184173559</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.006694052958819</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9669918184173559</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.008046411351587</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.011332688965158</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.017756579200485</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9824771460234177</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.011332688965158</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.006694052958819</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9868429356880875</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9868429356880875</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9853876724665308</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9950061867804445</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9950061867804445</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9990878123266229</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9990878123266229</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9988831161528039</v>
       </c>
     </row>
